--- a/CurriCompassAPI/public/storage/sample-curriculum.xlsx
+++ b/CurriCompassAPI/public/storage/sample-curriculum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CurriCompass_SC\CurriCompassAPI\public\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC8FD8-870F-4885-A05A-536162F901CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C0E035-11A5-4C4E-A786-454058490E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSIT WEB" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="268">
   <si>
     <t>BACHELOR OF SCIENCE IN INFORMATION TECHNOLOGY CURRICULUM</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>Web and Mobile Application Development for Android Studio 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAM 2 </t>
   </si>
   <si>
     <t>ICT 10</t>
@@ -2262,7 +2259,7 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2270,51 +2267,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2325,18 +2313,36 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,46 +2350,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2607,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y812"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2624,17 +2621,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
       <c r="L1" s="116"/>
@@ -2650,17 +2647,17 @@
       <c r="V1" s="116"/>
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
       <c r="J2" s="116"/>
       <c r="K2" s="116"/>
       <c r="L2" s="116"/>
@@ -2676,17 +2673,17 @@
       <c r="V2" s="116"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
       <c r="J3" s="105"/>
       <c r="K3" s="105"/>
       <c r="L3" s="105"/>
@@ -2776,17 +2773,17 @@
       <c r="V6" s="105"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="117"/>
       <c r="K7" s="117"/>
       <c r="L7" s="117"/>
@@ -2802,17 +2799,17 @@
       <c r="V7" s="117"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="117"/>
       <c r="K8" s="117"/>
       <c r="L8" s="117"/>
@@ -2828,16 +2825,16 @@
       <c r="V8" s="117"/>
     </row>
     <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="133" t="s">
@@ -2848,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="134"/>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="117"/>
@@ -2869,7 +2866,7 @@
       <c r="Y9" s="117"/>
     </row>
     <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
       <c r="D10" s="132"/>
@@ -2885,7 +2882,7 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="136"/>
+      <c r="I10" s="139"/>
       <c r="J10" s="117"/>
       <c r="K10" s="117"/>
       <c r="L10" s="117"/>
@@ -3206,17 +3203,17 @@
       <c r="Y17" s="117"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="117"/>
       <c r="K18" s="117"/>
       <c r="L18" s="117"/>
@@ -3235,16 +3232,16 @@
       <c r="Y18" s="117"/>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="133" t="s">
@@ -3255,7 +3252,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="134"/>
-      <c r="I19" s="135" t="s">
+      <c r="I19" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="117"/>
@@ -3276,7 +3273,7 @@
       <c r="Y19" s="117"/>
     </row>
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="132"/>
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
@@ -3292,7 +3289,7 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="136"/>
+      <c r="I20" s="139"/>
       <c r="J20" s="117"/>
       <c r="K20" s="117"/>
       <c r="L20" s="117"/>
@@ -3549,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J26" s="117"/>
       <c r="K26" s="117"/>
@@ -3658,17 +3655,17 @@
       <c r="Y28" s="117"/>
     </row>
     <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
       <c r="J29" s="117"/>
       <c r="K29" s="117"/>
       <c r="L29" s="117"/>
@@ -3687,16 +3684,16 @@
       <c r="Y29" s="117"/>
     </row>
     <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="133" t="s">
@@ -3707,7 +3704,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="134"/>
-      <c r="I30" s="135" t="s">
+      <c r="I30" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J30" s="117"/>
@@ -3728,7 +3725,7 @@
       <c r="Y30" s="117"/>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
       <c r="D31" s="132"/>
@@ -3744,7 +3741,7 @@
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="136"/>
+      <c r="I31" s="139"/>
       <c r="J31" s="117"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
@@ -4110,17 +4107,17 @@
       <c r="Y39" s="117"/>
     </row>
     <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="139"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="142"/>
       <c r="J40" s="117"/>
       <c r="K40" s="117"/>
       <c r="L40" s="117"/>
@@ -4139,17 +4136,17 @@
       <c r="Y40" s="117"/>
     </row>
     <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="142"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="137"/>
       <c r="J41" s="117"/>
       <c r="K41" s="117"/>
       <c r="L41" s="117"/>
@@ -4168,16 +4165,16 @@
       <c r="Y41" s="117"/>
     </row>
     <row r="42" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="133" t="s">
@@ -4188,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="134"/>
-      <c r="I42" s="135" t="s">
+      <c r="I42" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="117"/>
@@ -4209,10 +4206,10 @@
       <c r="Y42" s="117"/>
     </row>
     <row r="43" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="144"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
@@ -4225,7 +4222,7 @@
       <c r="H43" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="146"/>
+      <c r="I43" s="154"/>
       <c r="J43" s="117"/>
       <c r="K43" s="117"/>
       <c r="L43" s="117"/>
@@ -4503,28 +4500,28 @@
     </row>
     <row r="50" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="131" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="131">
         <v>3</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="131">
         <v>3</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="131">
         <v>0</v>
       </c>
-      <c r="G50" s="152">
+      <c r="G50" s="131">
         <v>4</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="131">
         <v>0</v>
       </c>
-      <c r="I50" s="156" t="s">
+      <c r="I50" s="138" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="117"/>
@@ -4555,7 +4552,7 @@
       <c r="F51" s="132"/>
       <c r="G51" s="132"/>
       <c r="H51" s="132"/>
-      <c r="I51" s="136"/>
+      <c r="I51" s="139"/>
       <c r="J51" s="117"/>
       <c r="K51" s="117"/>
       <c r="L51" s="117"/>
@@ -4620,17 +4617,17 @@
       <c r="Y52" s="117"/>
     </row>
     <row r="53" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="140" t="s">
+      <c r="A53" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="142"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="137"/>
       <c r="J53" s="117"/>
       <c r="K53" s="117"/>
       <c r="L53" s="117"/>
@@ -4649,16 +4646,16 @@
       <c r="Y53" s="117"/>
     </row>
     <row r="54" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="131" t="s">
+      <c r="D54" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="133" t="s">
@@ -4669,7 +4666,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="134"/>
-      <c r="I54" s="135" t="s">
+      <c r="I54" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J54" s="117"/>
@@ -4690,10 +4687,10 @@
       <c r="Y54" s="117"/>
     </row>
     <row r="55" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="144"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="19" t="s">
         <v>12</v>
       </c>
@@ -4706,7 +4703,7 @@
       <c r="H55" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="146"/>
+      <c r="I55" s="154"/>
       <c r="J55" s="117"/>
       <c r="K55" s="117"/>
       <c r="L55" s="117"/>
@@ -4983,29 +4980,29 @@
       <c r="Y61" s="117"/>
     </row>
     <row r="62" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="157"/>
-      <c r="B62" s="152" t="s">
+      <c r="A62" s="162"/>
+      <c r="B62" s="131" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="152">
+      <c r="D62" s="131">
         <v>3</v>
       </c>
-      <c r="E62" s="152">
+      <c r="E62" s="131">
         <v>3</v>
       </c>
-      <c r="F62" s="152">
+      <c r="F62" s="131">
         <v>0</v>
       </c>
-      <c r="G62" s="152">
+      <c r="G62" s="131">
         <v>4</v>
       </c>
-      <c r="H62" s="152">
+      <c r="H62" s="131">
         <v>0</v>
       </c>
-      <c r="I62" s="156" t="s">
+      <c r="I62" s="138" t="s">
         <v>74</v>
       </c>
       <c r="J62" s="117"/>
@@ -5026,7 +5023,7 @@
       <c r="Y62" s="117"/>
     </row>
     <row r="63" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="144"/>
+      <c r="A63" s="145"/>
       <c r="B63" s="132"/>
       <c r="C63" s="4" t="s">
         <v>91</v>
@@ -5036,7 +5033,7 @@
       <c r="F63" s="132"/>
       <c r="G63" s="132"/>
       <c r="H63" s="132"/>
-      <c r="I63" s="136"/>
+      <c r="I63" s="139"/>
       <c r="J63" s="117"/>
       <c r="K63" s="117"/>
       <c r="L63" s="117"/>
@@ -5101,17 +5098,17 @@
       <c r="Y64" s="117"/>
     </row>
     <row r="65" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="165" t="s">
+      <c r="A65" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="139"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="142"/>
       <c r="J65" s="117"/>
       <c r="K65" s="117"/>
       <c r="L65" s="117"/>
@@ -5130,16 +5127,16 @@
       <c r="Y65" s="117"/>
     </row>
     <row r="66" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131" t="s">
+      <c r="A66" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="131" t="s">
+      <c r="C66" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="131" t="s">
+      <c r="D66" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="133" t="s">
@@ -5150,7 +5147,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="134"/>
-      <c r="I66" s="131" t="s">
+      <c r="I66" s="143" t="s">
         <v>11</v>
       </c>
       <c r="J66" s="117"/>
@@ -5580,17 +5577,17 @@
       <c r="Y76" s="117"/>
     </row>
     <row r="77" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="153" t="s">
+      <c r="A77" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="154"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="155"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="161"/>
       <c r="J77" s="117"/>
       <c r="K77" s="117"/>
       <c r="L77" s="117"/>
@@ -5609,17 +5606,17 @@
       <c r="Y77" s="117"/>
     </row>
     <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="149" t="s">
+      <c r="A78" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="150"/>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
-      <c r="E78" s="150"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="151"/>
+      <c r="B78" s="152"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="152"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="153"/>
       <c r="J78" s="117"/>
       <c r="K78" s="117"/>
       <c r="L78" s="117"/>
@@ -5638,16 +5635,16 @@
       <c r="Y78" s="117"/>
     </row>
     <row r="79" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="143" t="s">
+      <c r="A79" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="131" t="s">
+      <c r="B79" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="131" t="s">
+      <c r="D79" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="133" t="s">
@@ -5658,7 +5655,7 @@
         <v>10</v>
       </c>
       <c r="H79" s="134"/>
-      <c r="I79" s="135" t="s">
+      <c r="I79" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="117"/>
@@ -5679,7 +5676,7 @@
       <c r="Y79" s="117"/>
     </row>
     <row r="80" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="144"/>
+      <c r="A80" s="145"/>
       <c r="B80" s="132"/>
       <c r="C80" s="132"/>
       <c r="D80" s="132"/>
@@ -5695,7 +5692,7 @@
       <c r="H80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="136"/>
+      <c r="I80" s="139"/>
       <c r="J80" s="117"/>
       <c r="K80" s="117"/>
       <c r="L80" s="117"/>
@@ -6061,17 +6058,17 @@
       <c r="Y88" s="117"/>
     </row>
     <row r="89" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="142"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="137"/>
       <c r="J89" s="117"/>
       <c r="K89" s="117"/>
       <c r="L89" s="117"/>
@@ -6090,16 +6087,16 @@
       <c r="Y89" s="117"/>
     </row>
     <row r="90" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="143" t="s">
+      <c r="A90" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="131" t="s">
+      <c r="B90" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="131" t="s">
+      <c r="C90" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="131" t="s">
+      <c r="D90" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="133" t="s">
@@ -6110,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="H90" s="134"/>
-      <c r="I90" s="135" t="s">
+      <c r="I90" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J90" s="117"/>
@@ -6131,10 +6128,10 @@
       <c r="Y90" s="117"/>
     </row>
     <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="144"/>
-      <c r="B91" s="145"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
+      <c r="A91" s="145"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
       <c r="E91" s="19" t="s">
         <v>12</v>
       </c>
@@ -6147,7 +6144,7 @@
       <c r="H91" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="146"/>
+      <c r="I91" s="154"/>
       <c r="J91" s="117"/>
       <c r="K91" s="117"/>
       <c r="L91" s="117"/>
@@ -6234,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="J93" s="117"/>
       <c r="K93" s="117"/>
@@ -6256,10 +6253,10 @@
     <row r="94" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14"/>
       <c r="B94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
@@ -6299,10 +6296,10 @@
     <row r="95" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D95" s="3">
         <v>3</v>
@@ -6342,10 +6339,10 @@
     <row r="96" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
       <c r="B96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D96" s="3">
         <v>3</v>
@@ -6385,10 +6382,10 @@
     <row r="97" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14"/>
       <c r="B97" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D97" s="39">
         <v>3</v>
@@ -6406,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J97" s="117"/>
       <c r="K97" s="117"/>
@@ -6428,10 +6425,10 @@
     <row r="98" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14"/>
       <c r="B98" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D98" s="3">
         <v>3</v>
@@ -6515,17 +6512,17 @@
       <c r="Y99" s="117"/>
     </row>
     <row r="100" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="140" t="s">
+      <c r="A100" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B100" s="141"/>
-      <c r="C100" s="141"/>
-      <c r="D100" s="141"/>
-      <c r="E100" s="141"/>
-      <c r="F100" s="141"/>
-      <c r="G100" s="141"/>
-      <c r="H100" s="141"/>
-      <c r="I100" s="142"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="136"/>
+      <c r="G100" s="136"/>
+      <c r="H100" s="136"/>
+      <c r="I100" s="137"/>
       <c r="J100" s="117"/>
       <c r="K100" s="117"/>
       <c r="L100" s="117"/>
@@ -6544,16 +6541,16 @@
       <c r="Y100" s="117"/>
     </row>
     <row r="101" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="143" t="s">
+      <c r="A101" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="131" t="s">
+      <c r="B101" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="131" t="s">
+      <c r="C101" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="131" t="s">
+      <c r="D101" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="133" t="s">
@@ -6564,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="H101" s="134"/>
-      <c r="I101" s="135" t="s">
+      <c r="I101" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J101" s="117"/>
@@ -6585,7 +6582,7 @@
       <c r="Y101" s="117"/>
     </row>
     <row r="102" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="144"/>
+      <c r="A102" s="145"/>
       <c r="B102" s="132"/>
       <c r="C102" s="132"/>
       <c r="D102" s="132"/>
@@ -6601,7 +6598,7 @@
       <c r="H102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="136"/>
+      <c r="I102" s="139"/>
       <c r="J102" s="117"/>
       <c r="K102" s="117"/>
       <c r="L102" s="117"/>
@@ -6622,10 +6619,10 @@
     <row r="103" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D103" s="7">
         <v>3</v>
@@ -6643,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J103" s="117"/>
       <c r="K103" s="117"/>
@@ -6665,10 +6662,10 @@
     <row r="104" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D104" s="7">
         <v>3</v>
@@ -6686,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J104" s="117"/>
       <c r="K104" s="117"/>
@@ -6708,10 +6705,10 @@
     <row r="105" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D105" s="3">
         <v>3</v>
@@ -6751,10 +6748,10 @@
     <row r="106" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D106" s="3">
         <v>3</v>
@@ -6794,10 +6791,10 @@
     <row r="107" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="118"/>
       <c r="B107" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="D107" s="31">
         <v>3</v>
@@ -6837,10 +6834,10 @@
     <row r="108" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="41"/>
       <c r="B108" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>152</v>
       </c>
       <c r="D108" s="31">
         <v>3</v>
@@ -6922,17 +6919,17 @@
       <c r="Y109" s="117"/>
     </row>
     <row r="110" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" s="163"/>
-      <c r="C110" s="163"/>
-      <c r="D110" s="163"/>
-      <c r="E110" s="163"/>
-      <c r="F110" s="163"/>
-      <c r="G110" s="163"/>
-      <c r="H110" s="163"/>
-      <c r="I110" s="164"/>
+      <c r="A110" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="149"/>
+      <c r="C110" s="149"/>
+      <c r="D110" s="149"/>
+      <c r="E110" s="149"/>
+      <c r="F110" s="149"/>
+      <c r="G110" s="149"/>
+      <c r="H110" s="149"/>
+      <c r="I110" s="150"/>
       <c r="J110" s="117"/>
       <c r="K110" s="117"/>
       <c r="L110" s="117"/>
@@ -6951,17 +6948,17 @@
       <c r="Y110" s="117"/>
     </row>
     <row r="111" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="149" t="s">
+      <c r="A111" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="150"/>
-      <c r="C111" s="150"/>
-      <c r="D111" s="150"/>
-      <c r="E111" s="150"/>
-      <c r="F111" s="150"/>
-      <c r="G111" s="150"/>
-      <c r="H111" s="150"/>
-      <c r="I111" s="151"/>
+      <c r="B111" s="152"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="152"/>
+      <c r="E111" s="152"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+      <c r="I111" s="153"/>
       <c r="J111" s="117"/>
       <c r="K111" s="117"/>
       <c r="L111" s="117"/>
@@ -6980,16 +6977,16 @@
       <c r="Y111" s="117"/>
     </row>
     <row r="112" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="143" t="s">
+      <c r="A112" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="131" t="s">
+      <c r="B112" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="131" t="s">
+      <c r="C112" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="131" t="s">
+      <c r="D112" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="133" t="s">
@@ -7000,7 +6997,7 @@
         <v>10</v>
       </c>
       <c r="H112" s="134"/>
-      <c r="I112" s="135" t="s">
+      <c r="I112" s="147" t="s">
         <v>11</v>
       </c>
       <c r="J112" s="117"/>
@@ -7021,10 +7018,10 @@
       <c r="Y112" s="117"/>
     </row>
     <row r="113" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="144"/>
-      <c r="B113" s="145"/>
-      <c r="C113" s="145"/>
-      <c r="D113" s="145"/>
+      <c r="A113" s="145"/>
+      <c r="B113" s="146"/>
+      <c r="C113" s="146"/>
+      <c r="D113" s="146"/>
       <c r="E113" s="19" t="s">
         <v>12</v>
       </c>
@@ -7037,7 +7034,7 @@
       <c r="H113" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="146"/>
+      <c r="I113" s="154"/>
       <c r="J113" s="117"/>
       <c r="K113" s="117"/>
       <c r="L113" s="117"/>
@@ -7058,10 +7055,10 @@
     <row r="114" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
@@ -7101,10 +7098,10 @@
     <row r="115" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D115" s="3">
         <v>6</v>
@@ -7122,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J115" s="117"/>
       <c r="K115" s="117"/>
@@ -7215,17 +7212,17 @@
       <c r="Y117" s="117"/>
     </row>
     <row r="118" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B118" s="159"/>
-      <c r="C118" s="159"/>
-      <c r="D118" s="159"/>
-      <c r="E118" s="159"/>
-      <c r="F118" s="159"/>
-      <c r="G118" s="159"/>
-      <c r="H118" s="159"/>
-      <c r="I118" s="159"/>
+      <c r="A118" s="157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="156"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
       <c r="J118" s="105"/>
       <c r="K118" s="105"/>
       <c r="L118" s="105"/>
@@ -7325,10 +7322,10 @@
       <c r="Y121" s="105"/>
     </row>
     <row r="122" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="159"/>
+      <c r="A122" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="156"/>
       <c r="C122" s="123"/>
       <c r="D122" s="117"/>
       <c r="E122" s="117"/>
@@ -7408,11 +7405,11 @@
       <c r="Y124" s="117"/>
     </row>
     <row r="125" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="159"/>
-      <c r="C125" s="159"/>
+      <c r="A125" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="156"/>
+      <c r="C125" s="156"/>
       <c r="D125" s="117"/>
       <c r="E125" s="117"/>
       <c r="F125" s="124"/>
@@ -7437,10 +7434,10 @@
       <c r="Y125" s="117"/>
     </row>
     <row r="126" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="159"/>
+      <c r="A126" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="156"/>
       <c r="C126" s="124"/>
       <c r="D126" s="117"/>
       <c r="E126" s="117"/>
@@ -7520,10 +7517,10 @@
       <c r="Y128" s="117"/>
     </row>
     <row r="129" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="159"/>
+      <c r="A129" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="156"/>
       <c r="C129" s="123"/>
       <c r="D129" s="123"/>
       <c r="E129" s="123"/>
@@ -7603,11 +7600,11 @@
       <c r="Y131" s="117"/>
     </row>
     <row r="132" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="158" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="159"/>
-      <c r="C132" s="159"/>
+      <c r="A132" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" s="156"/>
+      <c r="C132" s="156"/>
       <c r="D132" s="123"/>
       <c r="E132" s="123"/>
       <c r="F132" s="123"/>
@@ -7632,10 +7629,10 @@
       <c r="Y132" s="117"/>
     </row>
     <row r="133" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B133" s="159"/>
+      <c r="A133" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="156"/>
       <c r="C133" s="117"/>
       <c r="D133" s="123"/>
       <c r="E133" s="123"/>
@@ -7688,11 +7685,11 @@
       <c r="Y134" s="117"/>
     </row>
     <row r="135" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B135" s="159"/>
-      <c r="C135" s="159"/>
+      <c r="A135" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" s="156"/>
+      <c r="C135" s="156"/>
       <c r="D135" s="123"/>
       <c r="E135" s="123"/>
       <c r="F135" s="123"/>
@@ -7771,11 +7768,11 @@
       <c r="Y137" s="117"/>
     </row>
     <row r="138" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
+      <c r="A138" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="156"/>
+      <c r="C138" s="156"/>
       <c r="D138" s="123"/>
       <c r="E138" s="123"/>
       <c r="F138" s="123"/>
@@ -7800,11 +7797,11 @@
       <c r="Y138" s="117"/>
     </row>
     <row r="139" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B139" s="159"/>
-      <c r="C139" s="159"/>
+      <c r="A139" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="156"/>
+      <c r="C139" s="156"/>
       <c r="D139" s="123"/>
       <c r="E139" s="123"/>
       <c r="F139" s="123"/>
@@ -12851,11 +12848,11 @@
       <c r="Y325" s="105"/>
     </row>
     <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="B326" s="159"/>
-      <c r="C326" s="159"/>
+      <c r="A326" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B326" s="156"/>
+      <c r="C326" s="156"/>
       <c r="D326" s="105"/>
       <c r="E326" s="105"/>
       <c r="F326" s="105"/>
@@ -12880,11 +12877,11 @@
       <c r="Y326" s="105"/>
     </row>
     <row r="327" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B327" s="159"/>
-      <c r="C327" s="159"/>
+      <c r="A327" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B327" s="156"/>
+      <c r="C327" s="156"/>
       <c r="D327" s="105"/>
       <c r="E327" s="105"/>
       <c r="F327" s="105"/>
@@ -14409,59 +14406,43 @@
     <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
@@ -14486,43 +14467,59 @@
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="1.2598425196850394" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.11811023622047245"/>
@@ -14561,16 +14558,16 @@
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116"/>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
       <c r="L1" s="116"/>
@@ -14590,16 +14587,16 @@
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116"/>
-      <c r="B2" s="148" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
+      <c r="B2" s="164" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="116"/>
       <c r="K2" s="116"/>
       <c r="L2" s="116"/>
@@ -14619,16 +14616,16 @@
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="105"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
       <c r="J3" s="105"/>
       <c r="K3" s="105"/>
       <c r="L3" s="105"/>
@@ -14675,7 +14672,7 @@
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -14730,17 +14727,17 @@
       <c r="Y6" s="117"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
       <c r="J7" s="117"/>
       <c r="K7" s="117"/>
       <c r="L7" s="117"/>
@@ -14759,17 +14756,17 @@
       <c r="Y7" s="117"/>
     </row>
     <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="167"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="117"/>
       <c r="K8" s="117"/>
       <c r="L8" s="117"/>
@@ -14788,16 +14785,16 @@
       <c r="Y8" s="117"/>
     </row>
     <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="133" t="s">
@@ -14808,7 +14805,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="134"/>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="117"/>
@@ -14829,7 +14826,7 @@
       <c r="Y9" s="117"/>
     </row>
     <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
       <c r="D10" s="132"/>
@@ -14845,7 +14842,7 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="171"/>
+      <c r="I10" s="169"/>
       <c r="J10" s="117"/>
       <c r="K10" s="117"/>
       <c r="L10" s="117"/>
@@ -15166,17 +15163,17 @@
       <c r="Y17" s="117"/>
     </row>
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="167"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="184"/>
       <c r="J18" s="117"/>
       <c r="K18" s="117"/>
       <c r="L18" s="117"/>
@@ -15195,16 +15192,16 @@
       <c r="Y18" s="117"/>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="133" t="s">
@@ -15215,7 +15212,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="134"/>
-      <c r="I19" s="170" t="s">
+      <c r="I19" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="117"/>
@@ -15236,7 +15233,7 @@
       <c r="Y19" s="117"/>
     </row>
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="132"/>
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
@@ -15252,7 +15249,7 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="171"/>
+      <c r="I20" s="169"/>
       <c r="J20" s="117"/>
       <c r="K20" s="117"/>
       <c r="L20" s="117"/>
@@ -15509,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J26" s="117"/>
       <c r="K26" s="117"/>
@@ -15618,17 +15615,17 @@
       <c r="Y28" s="117"/>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="177"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="167"/>
       <c r="J29" s="117"/>
       <c r="K29" s="117"/>
       <c r="L29" s="117"/>
@@ -15647,16 +15644,16 @@
       <c r="Y29" s="117"/>
     </row>
     <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="133" t="s">
@@ -15667,7 +15664,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="134"/>
-      <c r="I30" s="170" t="s">
+      <c r="I30" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J30" s="117"/>
@@ -15688,7 +15685,7 @@
       <c r="Y30" s="117"/>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="169"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
       <c r="D31" s="132"/>
@@ -15704,7 +15701,7 @@
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="171"/>
+      <c r="I31" s="169"/>
       <c r="J31" s="117"/>
       <c r="K31" s="117"/>
       <c r="L31" s="117"/>
@@ -16070,17 +16067,17 @@
       <c r="Y39" s="117"/>
     </row>
     <row r="40" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="155"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="161"/>
       <c r="J40" s="117"/>
       <c r="K40" s="117"/>
       <c r="L40" s="117"/>
@@ -16099,17 +16096,17 @@
       <c r="Y40" s="117"/>
     </row>
     <row r="41" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="174"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="178"/>
       <c r="J41" s="117"/>
       <c r="K41" s="117"/>
       <c r="L41" s="117"/>
@@ -16128,16 +16125,16 @@
       <c r="Y41" s="117"/>
     </row>
     <row r="42" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="133" t="s">
@@ -16148,7 +16145,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="134"/>
-      <c r="I42" s="170" t="s">
+      <c r="I42" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="117"/>
@@ -16169,10 +16166,10 @@
       <c r="Y42" s="117"/>
     </row>
     <row r="43" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="169"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="A43" s="174"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
@@ -16185,7 +16182,7 @@
       <c r="H43" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="175"/>
+      <c r="I43" s="182"/>
       <c r="J43" s="117"/>
       <c r="K43" s="117"/>
       <c r="L43" s="117"/>
@@ -16463,28 +16460,28 @@
     </row>
     <row r="50" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="77"/>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="131" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="131">
         <v>3</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="131">
         <v>3</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="131">
         <v>0</v>
       </c>
-      <c r="G50" s="152">
+      <c r="G50" s="131">
         <v>4</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="131">
         <v>0</v>
       </c>
-      <c r="I50" s="178" t="s">
+      <c r="I50" s="168" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="117"/>
@@ -16515,7 +16512,7 @@
       <c r="F51" s="132"/>
       <c r="G51" s="132"/>
       <c r="H51" s="132"/>
-      <c r="I51" s="171"/>
+      <c r="I51" s="169"/>
       <c r="J51" s="117"/>
       <c r="K51" s="117"/>
       <c r="L51" s="117"/>
@@ -16580,17 +16577,17 @@
       <c r="Y52" s="117"/>
     </row>
     <row r="53" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="176" t="s">
+      <c r="A53" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="177"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="167"/>
       <c r="J53" s="117"/>
       <c r="K53" s="117"/>
       <c r="L53" s="117"/>
@@ -16609,16 +16606,16 @@
       <c r="Y53" s="117"/>
     </row>
     <row r="54" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="168" t="s">
+      <c r="A54" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="131" t="s">
+      <c r="D54" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="133" t="s">
@@ -16629,7 +16626,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="134"/>
-      <c r="I54" s="170" t="s">
+      <c r="I54" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J54" s="117"/>
@@ -16650,10 +16647,10 @@
       <c r="Y54" s="117"/>
     </row>
     <row r="55" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="169"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="19" t="s">
         <v>12</v>
       </c>
@@ -16666,7 +16663,7 @@
       <c r="H55" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="175"/>
+      <c r="I55" s="182"/>
       <c r="J55" s="117"/>
       <c r="K55" s="117"/>
       <c r="L55" s="117"/>
@@ -16943,29 +16940,29 @@
       <c r="Y61" s="117"/>
     </row>
     <row r="62" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="179"/>
-      <c r="B62" s="152" t="s">
+      <c r="A62" s="185"/>
+      <c r="B62" s="131" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="152">
+      <c r="D62" s="131">
         <v>3</v>
       </c>
-      <c r="E62" s="152">
+      <c r="E62" s="131">
         <v>3</v>
       </c>
-      <c r="F62" s="152">
+      <c r="F62" s="131">
         <v>0</v>
       </c>
-      <c r="G62" s="152">
+      <c r="G62" s="131">
         <v>4</v>
       </c>
-      <c r="H62" s="152">
+      <c r="H62" s="131">
         <v>0</v>
       </c>
-      <c r="I62" s="178" t="s">
+      <c r="I62" s="168" t="s">
         <v>74</v>
       </c>
       <c r="J62" s="117"/>
@@ -16986,7 +16983,7 @@
       <c r="Y62" s="117"/>
     </row>
     <row r="63" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="169"/>
+      <c r="A63" s="174"/>
       <c r="B63" s="132"/>
       <c r="C63" s="4" t="s">
         <v>91</v>
@@ -16996,7 +16993,7 @@
       <c r="F63" s="132"/>
       <c r="G63" s="132"/>
       <c r="H63" s="132"/>
-      <c r="I63" s="171"/>
+      <c r="I63" s="169"/>
       <c r="J63" s="117"/>
       <c r="K63" s="117"/>
       <c r="L63" s="117"/>
@@ -17061,17 +17058,17 @@
       <c r="Y64" s="117"/>
     </row>
     <row r="65" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="184" t="s">
+      <c r="A65" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="185"/>
-      <c r="C65" s="185"/>
-      <c r="D65" s="185"/>
-      <c r="E65" s="185"/>
-      <c r="F65" s="185"/>
-      <c r="G65" s="185"/>
-      <c r="H65" s="185"/>
-      <c r="I65" s="186"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="171"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="171"/>
+      <c r="I65" s="172"/>
       <c r="J65" s="117"/>
       <c r="K65" s="117"/>
       <c r="L65" s="117"/>
@@ -17090,16 +17087,16 @@
       <c r="Y65" s="117"/>
     </row>
     <row r="66" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="168" t="s">
+      <c r="A66" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="131" t="s">
+      <c r="C66" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="131" t="s">
+      <c r="D66" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="133" t="s">
@@ -17110,7 +17107,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="134"/>
-      <c r="I66" s="170" t="s">
+      <c r="I66" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J66" s="117"/>
@@ -17131,7 +17128,7 @@
       <c r="Y66" s="117"/>
     </row>
     <row r="67" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="169"/>
+      <c r="A67" s="174"/>
       <c r="B67" s="132"/>
       <c r="C67" s="132"/>
       <c r="D67" s="132"/>
@@ -17147,7 +17144,7 @@
       <c r="H67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="171"/>
+      <c r="I67" s="169"/>
       <c r="J67" s="117"/>
       <c r="K67" s="117"/>
       <c r="L67" s="117"/>
@@ -17189,7 +17186,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
@@ -17540,17 +17537,17 @@
       <c r="Y76" s="105"/>
     </row>
     <row r="77" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="153" t="s">
+      <c r="A77" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="154"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="155"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="161"/>
       <c r="J77" s="117"/>
       <c r="K77" s="117"/>
       <c r="L77" s="117"/>
@@ -17569,17 +17566,17 @@
       <c r="Y77" s="117"/>
     </row>
     <row r="78" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="166" t="s">
+      <c r="A78" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="150"/>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
-      <c r="E78" s="150"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="167"/>
+      <c r="B78" s="152"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="152"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="184"/>
       <c r="J78" s="117"/>
       <c r="K78" s="117"/>
       <c r="L78" s="117"/>
@@ -17598,16 +17595,16 @@
       <c r="Y78" s="117"/>
     </row>
     <row r="79" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="168" t="s">
+      <c r="A79" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="131" t="s">
+      <c r="B79" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="131" t="s">
+      <c r="D79" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="133" t="s">
@@ -17618,7 +17615,7 @@
         <v>10</v>
       </c>
       <c r="H79" s="134"/>
-      <c r="I79" s="170" t="s">
+      <c r="I79" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="117"/>
@@ -17639,7 +17636,7 @@
       <c r="Y79" s="117"/>
     </row>
     <row r="80" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="169"/>
+      <c r="A80" s="174"/>
       <c r="B80" s="132"/>
       <c r="C80" s="132"/>
       <c r="D80" s="132"/>
@@ -17655,7 +17652,7 @@
       <c r="H80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="171"/>
+      <c r="I80" s="169"/>
       <c r="J80" s="117"/>
       <c r="K80" s="117"/>
       <c r="L80" s="117"/>
@@ -17676,10 +17673,10 @@
     <row r="81" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="77"/>
       <c r="B81" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="46" t="s">
         <v>174</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>175</v>
       </c>
       <c r="D81" s="45">
         <v>3</v>
@@ -17719,10 +17716,10 @@
     <row r="82" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="77"/>
       <c r="B82" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="48" t="s">
         <v>176</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>177</v>
       </c>
       <c r="D82" s="20">
         <v>3</v>
@@ -18021,17 +18018,17 @@
       <c r="Y88" s="117"/>
     </row>
     <row r="89" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="176" t="s">
+      <c r="A89" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="177"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="167"/>
       <c r="J89" s="117"/>
       <c r="K89" s="117"/>
       <c r="L89" s="117"/>
@@ -18050,16 +18047,16 @@
       <c r="Y89" s="117"/>
     </row>
     <row r="90" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="168" t="s">
+      <c r="A90" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="131" t="s">
+      <c r="B90" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="131" t="s">
+      <c r="C90" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="131" t="s">
+      <c r="D90" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="133" t="s">
@@ -18070,7 +18067,7 @@
         <v>10</v>
       </c>
       <c r="H90" s="134"/>
-      <c r="I90" s="170" t="s">
+      <c r="I90" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J90" s="117"/>
@@ -18091,10 +18088,10 @@
       <c r="Y90" s="117"/>
     </row>
     <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="169"/>
-      <c r="B91" s="145"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
+      <c r="A91" s="174"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
       <c r="E91" s="19" t="s">
         <v>12</v>
       </c>
@@ -18107,7 +18104,7 @@
       <c r="H91" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="175"/>
+      <c r="I91" s="182"/>
       <c r="J91" s="117"/>
       <c r="K91" s="117"/>
       <c r="L91" s="117"/>
@@ -18130,10 +18127,10 @@
         <v>44</v>
       </c>
       <c r="B92" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="48" t="s">
         <v>178</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>179</v>
       </c>
       <c r="D92" s="20">
         <v>3</v>
@@ -18151,7 +18148,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J92" s="117"/>
       <c r="K92" s="117"/>
@@ -18173,10 +18170,10 @@
     <row r="93" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="77"/>
       <c r="B93" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="46" t="s">
         <v>180</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>181</v>
       </c>
       <c r="D93" s="20">
         <v>3</v>
@@ -18194,7 +18191,7 @@
         <v>4</v>
       </c>
       <c r="I93" s="79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J93" s="117"/>
       <c r="K93" s="117"/>
@@ -18216,10 +18213,10 @@
     <row r="94" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="77"/>
       <c r="B94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
@@ -18259,10 +18256,10 @@
     <row r="95" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="77"/>
       <c r="B95" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D95" s="3">
         <v>3</v>
@@ -18302,10 +18299,10 @@
     <row r="96" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="77"/>
       <c r="B96" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D96" s="3">
         <v>3</v>
@@ -18345,10 +18342,10 @@
     <row r="97" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="77"/>
       <c r="B97" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D97" s="39">
         <v>3</v>
@@ -18366,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J97" s="117"/>
       <c r="K97" s="117"/>
@@ -18388,10 +18385,10 @@
     <row r="98" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="77"/>
       <c r="B98" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D98" s="3">
         <v>3</v>
@@ -18475,17 +18472,17 @@
       <c r="Y99" s="117"/>
     </row>
     <row r="100" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="176" t="s">
+      <c r="A100" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="B100" s="141"/>
-      <c r="C100" s="141"/>
-      <c r="D100" s="141"/>
-      <c r="E100" s="141"/>
-      <c r="F100" s="141"/>
-      <c r="G100" s="141"/>
-      <c r="H100" s="141"/>
-      <c r="I100" s="177"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="136"/>
+      <c r="G100" s="136"/>
+      <c r="H100" s="136"/>
+      <c r="I100" s="167"/>
       <c r="J100" s="117"/>
       <c r="K100" s="117"/>
       <c r="L100" s="117"/>
@@ -18504,16 +18501,16 @@
       <c r="Y100" s="117"/>
     </row>
     <row r="101" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="168" t="s">
+      <c r="A101" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="131" t="s">
+      <c r="B101" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="131" t="s">
+      <c r="C101" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="131" t="s">
+      <c r="D101" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="133" t="s">
@@ -18524,7 +18521,7 @@
         <v>10</v>
       </c>
       <c r="H101" s="134"/>
-      <c r="I101" s="170" t="s">
+      <c r="I101" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J101" s="117"/>
@@ -18545,7 +18542,7 @@
       <c r="Y101" s="117"/>
     </row>
     <row r="102" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="169"/>
+      <c r="A102" s="174"/>
       <c r="B102" s="132"/>
       <c r="C102" s="132"/>
       <c r="D102" s="132"/>
@@ -18561,7 +18558,7 @@
       <c r="H102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="171"/>
+      <c r="I102" s="169"/>
       <c r="J102" s="117"/>
       <c r="K102" s="117"/>
       <c r="L102" s="117"/>
@@ -18582,10 +18579,10 @@
     <row r="103" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="86"/>
       <c r="B103" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="48" t="s">
         <v>183</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>184</v>
       </c>
       <c r="D103" s="45">
         <v>3</v>
@@ -18603,7 +18600,7 @@
         <v>4</v>
       </c>
       <c r="I103" s="78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J103" s="117"/>
       <c r="K103" s="117"/>
@@ -18625,10 +18622,10 @@
     <row r="104" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="77"/>
       <c r="B104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D104" s="7">
         <v>3</v>
@@ -18646,7 +18643,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J104" s="117"/>
       <c r="K104" s="117"/>
@@ -18668,10 +18665,10 @@
     <row r="105" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="86"/>
       <c r="B105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D105" s="7">
         <v>3</v>
@@ -18711,10 +18708,10 @@
     <row r="106" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="77"/>
       <c r="B106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D106" s="3">
         <v>3</v>
@@ -18754,10 +18751,10 @@
     <row r="107" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="81"/>
       <c r="B107" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="D107" s="31">
         <v>3</v>
@@ -18797,10 +18794,10 @@
     <row r="108" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="77"/>
       <c r="B108" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D108" s="31">
         <v>3</v>
@@ -18884,17 +18881,17 @@
       <c r="Y109" s="117"/>
     </row>
     <row r="110" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="180" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" s="173"/>
-      <c r="C110" s="173"/>
-      <c r="D110" s="173"/>
-      <c r="E110" s="173"/>
-      <c r="F110" s="173"/>
-      <c r="G110" s="173"/>
-      <c r="H110" s="173"/>
-      <c r="I110" s="174"/>
+      <c r="A110" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="177"/>
+      <c r="C110" s="177"/>
+      <c r="D110" s="177"/>
+      <c r="E110" s="177"/>
+      <c r="F110" s="177"/>
+      <c r="G110" s="177"/>
+      <c r="H110" s="177"/>
+      <c r="I110" s="178"/>
       <c r="J110" s="117"/>
       <c r="K110" s="117"/>
       <c r="L110" s="117"/>
@@ -18913,17 +18910,17 @@
       <c r="Y110" s="117"/>
     </row>
     <row r="111" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="181" t="s">
+      <c r="A111" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="182"/>
-      <c r="C111" s="182"/>
-      <c r="D111" s="182"/>
-      <c r="E111" s="182"/>
-      <c r="F111" s="182"/>
-      <c r="G111" s="182"/>
-      <c r="H111" s="182"/>
-      <c r="I111" s="183"/>
+      <c r="B111" s="180"/>
+      <c r="C111" s="180"/>
+      <c r="D111" s="180"/>
+      <c r="E111" s="180"/>
+      <c r="F111" s="180"/>
+      <c r="G111" s="180"/>
+      <c r="H111" s="180"/>
+      <c r="I111" s="181"/>
       <c r="J111" s="117"/>
       <c r="K111" s="117"/>
       <c r="L111" s="117"/>
@@ -18942,16 +18939,16 @@
       <c r="Y111" s="117"/>
     </row>
     <row r="112" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="168" t="s">
+      <c r="A112" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="131" t="s">
+      <c r="B112" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="131" t="s">
+      <c r="C112" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="131" t="s">
+      <c r="D112" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="133" t="s">
@@ -18962,7 +18959,7 @@
         <v>10</v>
       </c>
       <c r="H112" s="134"/>
-      <c r="I112" s="170" t="s">
+      <c r="I112" s="175" t="s">
         <v>11</v>
       </c>
       <c r="J112" s="117"/>
@@ -18983,7 +18980,7 @@
       <c r="Y112" s="117"/>
     </row>
     <row r="113" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="169"/>
+      <c r="A113" s="174"/>
       <c r="B113" s="132"/>
       <c r="C113" s="132"/>
       <c r="D113" s="132"/>
@@ -18999,7 +18996,7 @@
       <c r="H113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="171"/>
+      <c r="I113" s="169"/>
       <c r="J113" s="117"/>
       <c r="K113" s="117"/>
       <c r="L113" s="117"/>
@@ -19020,10 +19017,10 @@
     <row r="114" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="84"/>
       <c r="B114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
@@ -19063,10 +19060,10 @@
     <row r="115" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="84"/>
       <c r="B115" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D115" s="3">
         <v>6</v>
@@ -19084,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J115" s="117"/>
       <c r="K115" s="117"/>
@@ -19177,17 +19174,17 @@
       <c r="Y117" s="105"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B118" s="159"/>
-      <c r="C118" s="159"/>
-      <c r="D118" s="159"/>
-      <c r="E118" s="159"/>
-      <c r="F118" s="159"/>
-      <c r="G118" s="159"/>
-      <c r="H118" s="159"/>
-      <c r="I118" s="159"/>
+      <c r="A118" s="157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="156"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
       <c r="J118" s="105"/>
       <c r="K118" s="105"/>
       <c r="L118" s="105"/>
@@ -19287,10 +19284,10 @@
       <c r="Y121" s="117"/>
     </row>
     <row r="122" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="159"/>
+      <c r="A122" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="156"/>
       <c r="C122" s="123"/>
       <c r="D122" s="117"/>
       <c r="E122" s="117"/>
@@ -19370,11 +19367,11 @@
       <c r="Y124" s="117"/>
     </row>
     <row r="125" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="159"/>
-      <c r="C125" s="159"/>
+      <c r="A125" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="156"/>
+      <c r="C125" s="156"/>
       <c r="D125" s="117"/>
       <c r="E125" s="117"/>
       <c r="F125" s="124"/>
@@ -19399,10 +19396,10 @@
       <c r="Y125" s="117"/>
     </row>
     <row r="126" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="159"/>
+      <c r="A126" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="156"/>
       <c r="C126" s="124"/>
       <c r="D126" s="117"/>
       <c r="E126" s="117"/>
@@ -19455,10 +19452,10 @@
       <c r="Y127" s="117"/>
     </row>
     <row r="128" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B128" s="159"/>
+      <c r="A128" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="156"/>
       <c r="C128" s="123"/>
       <c r="D128" s="123"/>
       <c r="E128" s="123"/>
@@ -19538,11 +19535,11 @@
       <c r="Y130" s="117"/>
     </row>
     <row r="131" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="158" t="s">
-        <v>164</v>
-      </c>
-      <c r="B131" s="159"/>
-      <c r="C131" s="159"/>
+      <c r="A131" s="155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="156"/>
+      <c r="C131" s="156"/>
       <c r="D131" s="123"/>
       <c r="E131" s="123"/>
       <c r="F131" s="123"/>
@@ -19567,10 +19564,10 @@
       <c r="Y131" s="117"/>
     </row>
     <row r="132" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B132" s="159"/>
+      <c r="A132" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="156"/>
       <c r="C132" s="117"/>
       <c r="D132" s="123"/>
       <c r="E132" s="123"/>
@@ -19623,11 +19620,11 @@
       <c r="Y133" s="117"/>
     </row>
     <row r="134" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B134" s="159"/>
-      <c r="C134" s="159"/>
+      <c r="A134" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="156"/>
+      <c r="C134" s="156"/>
       <c r="D134" s="123"/>
       <c r="E134" s="123"/>
       <c r="F134" s="123"/>
@@ -19706,11 +19703,11 @@
       <c r="Y136" s="117"/>
     </row>
     <row r="137" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="159"/>
-      <c r="C137" s="159"/>
+      <c r="A137" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="156"/>
+      <c r="C137" s="156"/>
       <c r="D137" s="123"/>
       <c r="E137" s="123"/>
       <c r="F137" s="123"/>
@@ -19735,11 +19732,11 @@
       <c r="Y137" s="117"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
+      <c r="A138" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="156"/>
+      <c r="C138" s="156"/>
       <c r="D138" s="123"/>
       <c r="E138" s="123"/>
       <c r="F138" s="123"/>
@@ -24705,11 +24702,11 @@
       <c r="Y321" s="103"/>
     </row>
     <row r="322" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B322" s="159"/>
-      <c r="C322" s="159"/>
+      <c r="A322" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B322" s="156"/>
+      <c r="C322" s="156"/>
       <c r="D322" s="105"/>
       <c r="E322" s="105"/>
       <c r="F322" s="105"/>
@@ -24788,11 +24785,11 @@
       <c r="Y324" s="105"/>
     </row>
     <row r="325" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="B325" s="159"/>
-      <c r="C325" s="159"/>
+      <c r="A325" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B325" s="156"/>
+      <c r="C325" s="156"/>
       <c r="D325" s="105"/>
       <c r="E325" s="105"/>
       <c r="F325" s="105"/>
@@ -24817,11 +24814,11 @@
       <c r="Y325" s="105"/>
     </row>
     <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B326" s="159"/>
-      <c r="C326" s="159"/>
+      <c r="A326" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B326" s="156"/>
+      <c r="C326" s="156"/>
       <c r="D326" s="105"/>
       <c r="E326" s="105"/>
       <c r="F326" s="105"/>
@@ -30721,60 +30718,43 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
@@ -30799,43 +30779,60 @@
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="1.2598425196850394" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125984"/>
@@ -30873,43 +30870,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="A2" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
     </row>
     <row r="4" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105"/>
@@ -30924,7 +30921,7 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -30947,42 +30944,42 @@
       <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="177"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="167"/>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="133" t="s">
@@ -30993,12 +30990,12 @@
         <v>10</v>
       </c>
       <c r="H9" s="134"/>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
       <c r="D10" s="132"/>
@@ -31014,7 +31011,7 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="171"/>
+      <c r="I10" s="169"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="84"/>
@@ -31207,29 +31204,29 @@
       <c r="I17" s="80"/>
     </row>
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="167"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="184"/>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="133" t="s">
@@ -31240,12 +31237,12 @@
         <v>10</v>
       </c>
       <c r="H19" s="134"/>
-      <c r="I19" s="170" t="s">
+      <c r="I19" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="132"/>
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
@@ -31261,7 +31258,7 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="171"/>
+      <c r="I20" s="169"/>
     </row>
     <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="84"/>
@@ -31304,7 +31301,7 @@
       <c r="V21" s="117"/>
       <c r="W21" s="117"/>
       <c r="X21" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y21" s="49" t="s">
         <v>44</v>
@@ -31351,7 +31348,7 @@
       <c r="V22" s="117"/>
       <c r="W22" s="117"/>
       <c r="X22" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -31395,7 +31392,7 @@
       <c r="V23" s="117"/>
       <c r="W23" s="117"/>
       <c r="X23" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -31506,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J26" s="117"/>
       <c r="K26" s="117"/>
@@ -31617,29 +31614,29 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="177"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="167"/>
     </row>
     <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="133" t="s">
@@ -31650,12 +31647,12 @@
         <v>10</v>
       </c>
       <c r="H30" s="134"/>
-      <c r="I30" s="170" t="s">
+      <c r="I30" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="169"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
       <c r="D31" s="132"/>
@@ -31671,7 +31668,7 @@
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="171"/>
+      <c r="I31" s="169"/>
     </row>
     <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86"/>
@@ -31714,7 +31711,7 @@
       <c r="V32" s="117"/>
       <c r="W32" s="117"/>
       <c r="X32" s="127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -31758,7 +31755,7 @@
       <c r="V33" s="117"/>
       <c r="W33" s="117"/>
       <c r="X33" s="127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32020,42 +32017,42 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="167"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="184"/>
     </row>
     <row r="41" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="177"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="167"/>
     </row>
     <row r="42" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="133" t="s">
@@ -32066,15 +32063,15 @@
         <v>10</v>
       </c>
       <c r="H42" s="134"/>
-      <c r="I42" s="170" t="s">
+      <c r="I42" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="169"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="A43" s="174"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
@@ -32087,7 +32084,7 @@
       <c r="H43" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="175"/>
+      <c r="I43" s="182"/>
     </row>
     <row r="44" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="77"/>
@@ -32130,7 +32127,7 @@
       <c r="V44" s="117"/>
       <c r="W44" s="117"/>
       <c r="X44" s="127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32174,7 +32171,7 @@
       <c r="V45" s="117"/>
       <c r="W45" s="117"/>
       <c r="X45" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32218,7 +32215,7 @@
       <c r="V46" s="117"/>
       <c r="W46" s="117"/>
       <c r="X46" s="127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32349,28 +32346,28 @@
     </row>
     <row r="50" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="77"/>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="131" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="131">
         <v>3</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="131">
         <v>3</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="131">
         <v>0</v>
       </c>
-      <c r="G50" s="152">
+      <c r="G50" s="131">
         <v>4</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="131">
         <v>0</v>
       </c>
-      <c r="I50" s="178" t="s">
+      <c r="I50" s="168" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="117"/>
@@ -32400,7 +32397,7 @@
       <c r="F51" s="132"/>
       <c r="G51" s="132"/>
       <c r="H51" s="132"/>
-      <c r="I51" s="171"/>
+      <c r="I51" s="169"/>
       <c r="J51" s="117"/>
       <c r="K51" s="117"/>
       <c r="L51" s="117"/>
@@ -32466,29 +32463,29 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="176" t="s">
+      <c r="A53" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="177"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="167"/>
     </row>
     <row r="54" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="168" t="s">
+      <c r="A54" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="131" t="s">
+      <c r="D54" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="133" t="s">
@@ -32499,15 +32496,15 @@
         <v>10</v>
       </c>
       <c r="H54" s="134"/>
-      <c r="I54" s="170" t="s">
+      <c r="I54" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="169"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="19" t="s">
         <v>12</v>
       </c>
@@ -32520,7 +32517,7 @@
       <c r="H55" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="175"/>
+      <c r="I55" s="182"/>
     </row>
     <row r="56" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="81"/>
@@ -32563,7 +32560,7 @@
       <c r="V56" s="117"/>
       <c r="W56" s="117"/>
       <c r="X56" s="127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32607,7 +32604,7 @@
       <c r="V57" s="117"/>
       <c r="W57" s="117"/>
       <c r="X57" s="127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32651,7 +32648,7 @@
       <c r="V58" s="117"/>
       <c r="W58" s="117"/>
       <c r="X58" s="127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32695,7 +32692,7 @@
       <c r="V59" s="117"/>
       <c r="W59" s="117"/>
       <c r="X59" s="127" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -32783,29 +32780,29 @@
       <c r="X61" s="127"/>
     </row>
     <row r="62" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="179"/>
-      <c r="B62" s="152" t="s">
+      <c r="A62" s="185"/>
+      <c r="B62" s="131" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="152">
+      <c r="D62" s="131">
         <v>3</v>
       </c>
-      <c r="E62" s="152">
+      <c r="E62" s="131">
         <v>3</v>
       </c>
-      <c r="F62" s="152">
+      <c r="F62" s="131">
         <v>0</v>
       </c>
-      <c r="G62" s="152">
+      <c r="G62" s="131">
         <v>4</v>
       </c>
-      <c r="H62" s="152">
+      <c r="H62" s="131">
         <v>0</v>
       </c>
-      <c r="I62" s="178" t="s">
+      <c r="I62" s="168" t="s">
         <v>74</v>
       </c>
       <c r="J62" s="117"/>
@@ -32825,7 +32822,7 @@
       <c r="X62" s="127"/>
     </row>
     <row r="63" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="169"/>
+      <c r="A63" s="174"/>
       <c r="B63" s="132"/>
       <c r="C63" s="4" t="s">
         <v>91</v>
@@ -32835,7 +32832,7 @@
       <c r="F63" s="132"/>
       <c r="G63" s="132"/>
       <c r="H63" s="132"/>
-      <c r="I63" s="171"/>
+      <c r="I63" s="169"/>
       <c r="J63" s="117"/>
       <c r="K63" s="117"/>
       <c r="L63" s="117"/>
@@ -32901,29 +32898,29 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="189" t="s">
+      <c r="A65" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="190"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="188"/>
     </row>
     <row r="66" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="168" t="s">
+      <c r="A66" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="131" t="s">
+      <c r="C66" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="131" t="s">
+      <c r="D66" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="133" t="s">
@@ -32934,15 +32931,15 @@
         <v>10</v>
       </c>
       <c r="H66" s="134"/>
-      <c r="I66" s="170" t="s">
+      <c r="I66" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="169"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
+      <c r="A67" s="174"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
       <c r="E67" s="19" t="s">
         <v>12</v>
       </c>
@@ -32955,7 +32952,7 @@
       <c r="H67" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="175"/>
+      <c r="I67" s="182"/>
     </row>
     <row r="68" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="100"/>
@@ -32998,7 +32995,7 @@
       <c r="V68" s="33"/>
       <c r="W68" s="33"/>
       <c r="X68" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33042,7 +33039,7 @@
       <c r="V69" s="117"/>
       <c r="W69" s="117"/>
       <c r="X69" s="127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -33086,7 +33083,7 @@
       <c r="V70" s="117"/>
       <c r="W70" s="117"/>
       <c r="X70" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -33303,42 +33300,42 @@
       <c r="X75" s="127"/>
     </row>
     <row r="76" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="180" t="s">
+      <c r="A76" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="173"/>
-      <c r="H76" s="173"/>
-      <c r="I76" s="174"/>
+      <c r="B76" s="177"/>
+      <c r="C76" s="177"/>
+      <c r="D76" s="177"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="177"/>
+      <c r="I76" s="178"/>
     </row>
     <row r="77" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="176" t="s">
+      <c r="A77" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="177"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="167"/>
     </row>
     <row r="78" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="168" t="s">
+      <c r="A78" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="131" t="s">
+      <c r="B78" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="131" t="s">
+      <c r="D78" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="133" t="s">
@@ -33349,12 +33346,12 @@
         <v>10</v>
       </c>
       <c r="H78" s="134"/>
-      <c r="I78" s="170" t="s">
+      <c r="I78" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="169"/>
+      <c r="A79" s="174"/>
       <c r="B79" s="132"/>
       <c r="C79" s="132"/>
       <c r="D79" s="132"/>
@@ -33370,15 +33367,15 @@
       <c r="H79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="171"/>
+      <c r="I79" s="169"/>
     </row>
     <row r="80" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="77"/>
       <c r="B80" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="48" t="s">
         <v>205</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>206</v>
       </c>
       <c r="D80" s="20">
         <v>3</v>
@@ -33402,10 +33399,10 @@
     <row r="81" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="77"/>
       <c r="B81" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="48" t="s">
         <v>207</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>208</v>
       </c>
       <c r="D81" s="20">
         <v>3</v>
@@ -33592,29 +33589,29 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="176" t="s">
+      <c r="A88" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="141"/>
-      <c r="H88" s="141"/>
-      <c r="I88" s="177"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="136"/>
+      <c r="I88" s="167"/>
     </row>
     <row r="89" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="168" t="s">
+      <c r="A89" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="131" t="s">
+      <c r="B89" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="131" t="s">
+      <c r="C89" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="131" t="s">
+      <c r="D89" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="133" t="s">
@@ -33625,15 +33622,15 @@
         <v>10</v>
       </c>
       <c r="H89" s="134"/>
-      <c r="I89" s="170" t="s">
+      <c r="I89" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="169"/>
-      <c r="B90" s="145"/>
-      <c r="C90" s="145"/>
-      <c r="D90" s="145"/>
+      <c r="A90" s="174"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="146"/>
+      <c r="D90" s="146"/>
       <c r="E90" s="19" t="s">
         <v>12</v>
       </c>
@@ -33646,17 +33643,17 @@
       <c r="H90" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="175"/>
+      <c r="I90" s="182"/>
     </row>
     <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="48" t="s">
         <v>209</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>210</v>
       </c>
       <c r="D91" s="20">
         <v>3</v>
@@ -33674,16 +33671,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="77"/>
       <c r="B92" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="48" t="s">
         <v>211</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>212</v>
       </c>
       <c r="D92" s="20">
         <v>3</v>
@@ -33701,16 +33698,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="77"/>
       <c r="B93" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D93" s="3">
         <v>3</v>
@@ -33734,10 +33731,10 @@
     <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="77"/>
       <c r="B94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
@@ -33761,10 +33758,10 @@
     <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="77"/>
       <c r="B95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D95" s="3">
         <v>3</v>
@@ -33788,10 +33785,10 @@
     <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="77"/>
       <c r="B96" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D96" s="39">
         <v>3</v>
@@ -33809,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="77"/>
       <c r="B97" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D97" s="3">
         <v>3</v>
@@ -33870,29 +33867,29 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="189" t="s">
+      <c r="A99" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="138"/>
-      <c r="C99" s="138"/>
-      <c r="D99" s="138"/>
-      <c r="E99" s="138"/>
-      <c r="F99" s="138"/>
-      <c r="G99" s="138"/>
-      <c r="H99" s="138"/>
-      <c r="I99" s="190"/>
+      <c r="B99" s="141"/>
+      <c r="C99" s="141"/>
+      <c r="D99" s="141"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="141"/>
+      <c r="G99" s="141"/>
+      <c r="H99" s="141"/>
+      <c r="I99" s="188"/>
     </row>
     <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="168" t="s">
+      <c r="A100" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="131" t="s">
+      <c r="B100" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="131" t="s">
+      <c r="C100" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="131" t="s">
+      <c r="D100" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="133" t="s">
@@ -33903,12 +33900,12 @@
         <v>10</v>
       </c>
       <c r="H100" s="134"/>
-      <c r="I100" s="170" t="s">
+      <c r="I100" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="169"/>
+      <c r="A101" s="174"/>
       <c r="B101" s="132"/>
       <c r="C101" s="132"/>
       <c r="D101" s="132"/>
@@ -33924,15 +33921,15 @@
       <c r="H101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="171"/>
+      <c r="I101" s="169"/>
     </row>
     <row r="102" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="86"/>
       <c r="B102" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="46" t="s">
         <v>213</v>
-      </c>
-      <c r="C102" s="46" t="s">
-        <v>214</v>
       </c>
       <c r="D102" s="45">
         <v>3</v>
@@ -33950,16 +33947,16 @@
         <v>4</v>
       </c>
       <c r="I102" s="78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="77"/>
       <c r="B103" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D103" s="7">
         <v>3</v>
@@ -33977,16 +33974,16 @@
         <v>0</v>
       </c>
       <c r="I103" s="80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="86"/>
       <c r="B104" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D104" s="7">
         <v>3</v>
@@ -34010,10 +34007,10 @@
     <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="77"/>
       <c r="B105" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D105" s="3">
         <v>3</v>
@@ -34037,10 +34034,10 @@
     <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="81"/>
       <c r="B106" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="D106" s="31">
         <v>3</v>
@@ -34064,10 +34061,10 @@
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="77"/>
       <c r="B107" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D107" s="31">
         <v>3</v>
@@ -34119,42 +34116,42 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="180" t="s">
-        <v>153</v>
-      </c>
-      <c r="B109" s="173"/>
-      <c r="C109" s="173"/>
-      <c r="D109" s="173"/>
-      <c r="E109" s="173"/>
-      <c r="F109" s="173"/>
-      <c r="G109" s="173"/>
-      <c r="H109" s="173"/>
-      <c r="I109" s="174"/>
+      <c r="A109" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="177"/>
+      <c r="C109" s="177"/>
+      <c r="D109" s="177"/>
+      <c r="E109" s="177"/>
+      <c r="F109" s="177"/>
+      <c r="G109" s="177"/>
+      <c r="H109" s="177"/>
+      <c r="I109" s="178"/>
     </row>
     <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="176" t="s">
+      <c r="A110" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="141"/>
-      <c r="C110" s="141"/>
-      <c r="D110" s="141"/>
-      <c r="E110" s="141"/>
-      <c r="F110" s="141"/>
-      <c r="G110" s="141"/>
-      <c r="H110" s="141"/>
-      <c r="I110" s="177"/>
+      <c r="B110" s="136"/>
+      <c r="C110" s="136"/>
+      <c r="D110" s="136"/>
+      <c r="E110" s="136"/>
+      <c r="F110" s="136"/>
+      <c r="G110" s="136"/>
+      <c r="H110" s="136"/>
+      <c r="I110" s="167"/>
     </row>
     <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="168" t="s">
+      <c r="A111" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="131" t="s">
+      <c r="B111" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="131" t="s">
+      <c r="C111" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="131" t="s">
+      <c r="D111" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="133" t="s">
@@ -34165,15 +34162,15 @@
         <v>10</v>
       </c>
       <c r="H111" s="134"/>
-      <c r="I111" s="170" t="s">
+      <c r="I111" s="175" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="169"/>
-      <c r="B112" s="145"/>
-      <c r="C112" s="145"/>
-      <c r="D112" s="145"/>
+      <c r="A112" s="174"/>
+      <c r="B112" s="146"/>
+      <c r="C112" s="146"/>
+      <c r="D112" s="146"/>
       <c r="E112" s="19" t="s">
         <v>12</v>
       </c>
@@ -34186,15 +34183,15 @@
       <c r="H112" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="175"/>
+      <c r="I112" s="182"/>
     </row>
     <row r="113" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="77"/>
       <c r="B113" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D113" s="3">
         <v>3</v>
@@ -34218,10 +34215,10 @@
     <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="77"/>
       <c r="B114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D114" s="3">
         <v>6</v>
@@ -34239,7 +34236,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34284,17 +34281,17 @@
       <c r="I116" s="121"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="188" t="s">
-        <v>159</v>
-      </c>
-      <c r="B117" s="159"/>
-      <c r="C117" s="159"/>
-      <c r="D117" s="159"/>
-      <c r="E117" s="159"/>
-      <c r="F117" s="159"/>
-      <c r="G117" s="159"/>
-      <c r="H117" s="159"/>
-      <c r="I117" s="159"/>
+      <c r="A117" s="189" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="156"/>
+      <c r="C117" s="156"/>
+      <c r="D117" s="156"/>
+      <c r="E117" s="156"/>
+      <c r="F117" s="156"/>
+      <c r="G117" s="156"/>
+      <c r="H117" s="156"/>
+      <c r="I117" s="156"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="128"/>
@@ -34341,10 +34338,10 @@
       <c r="I121" s="105"/>
     </row>
     <row r="122" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="159"/>
+      <c r="A122" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="156"/>
       <c r="C122" s="123"/>
       <c r="D122" s="117"/>
       <c r="E122" s="117"/>
@@ -34376,11 +34373,11 @@
       <c r="I124" s="117"/>
     </row>
     <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="159"/>
-      <c r="C125" s="159"/>
+      <c r="A125" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="156"/>
+      <c r="C125" s="156"/>
       <c r="D125" s="117"/>
       <c r="E125" s="117"/>
       <c r="F125" s="124"/>
@@ -34389,10 +34386,10 @@
       <c r="I125" s="117"/>
     </row>
     <row r="126" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="159"/>
+      <c r="A126" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="156"/>
       <c r="C126" s="124"/>
       <c r="D126" s="117"/>
       <c r="E126" s="117"/>
@@ -34424,10 +34421,10 @@
       <c r="I128" s="117"/>
     </row>
     <row r="129" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="159"/>
+      <c r="A129" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="156"/>
       <c r="C129" s="123"/>
       <c r="D129" s="123"/>
       <c r="E129" s="123"/>
@@ -34459,11 +34456,11 @@
       <c r="I131" s="117"/>
     </row>
     <row r="132" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="B132" s="159"/>
-      <c r="C132" s="159"/>
+      <c r="A132" s="155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" s="156"/>
+      <c r="C132" s="156"/>
       <c r="D132" s="123"/>
       <c r="E132" s="123"/>
       <c r="F132" s="123"/>
@@ -34472,10 +34469,10 @@
       <c r="I132" s="117"/>
     </row>
     <row r="133" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B133" s="159"/>
+      <c r="A133" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="156"/>
       <c r="C133" s="117"/>
       <c r="D133" s="123"/>
       <c r="E133" s="123"/>
@@ -34507,11 +34504,11 @@
       <c r="I135" s="117"/>
     </row>
     <row r="136" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B136" s="159"/>
-      <c r="C136" s="159"/>
+      <c r="A136" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="156"/>
+      <c r="C136" s="156"/>
       <c r="D136" s="123"/>
       <c r="E136" s="123"/>
       <c r="F136" s="123"/>
@@ -34542,11 +34539,11 @@
       <c r="I138" s="117"/>
     </row>
     <row r="139" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="159"/>
-      <c r="C139" s="159"/>
+      <c r="A139" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="156"/>
+      <c r="C139" s="156"/>
       <c r="D139" s="123"/>
       <c r="E139" s="123"/>
       <c r="F139" s="123"/>
@@ -34555,11 +34552,11 @@
       <c r="I139" s="117"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="B140" s="159"/>
-      <c r="C140" s="159"/>
+      <c r="A140" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" s="156"/>
+      <c r="C140" s="156"/>
       <c r="D140" s="123"/>
       <c r="E140" s="123"/>
       <c r="F140" s="123"/>
@@ -36581,11 +36578,11 @@
       <c r="I323" s="105"/>
     </row>
     <row r="324" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B324" s="159"/>
-      <c r="C324" s="159"/>
+      <c r="A324" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B324" s="156"/>
+      <c r="C324" s="156"/>
       <c r="D324" s="105"/>
       <c r="E324" s="105"/>
       <c r="F324" s="105"/>
@@ -36616,11 +36613,11 @@
       <c r="I326" s="105"/>
     </row>
     <row r="327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="B327" s="159"/>
-      <c r="C327" s="159"/>
+      <c r="A327" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B327" s="156"/>
+      <c r="C327" s="156"/>
       <c r="D327" s="105"/>
       <c r="E327" s="105"/>
       <c r="F327" s="105"/>
@@ -36629,11 +36626,11 @@
       <c r="I327" s="105"/>
     </row>
     <row r="328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B328" s="159"/>
-      <c r="C328" s="159"/>
+      <c r="A328" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B328" s="156"/>
+      <c r="C328" s="156"/>
       <c r="D328" s="105"/>
       <c r="E328" s="105"/>
       <c r="F328" s="105"/>
@@ -39315,60 +39312,43 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A88:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
@@ -39393,43 +39373,60 @@
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="1.2598425196850394" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125984"/>
@@ -39467,42 +39464,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116"/>
-      <c r="B1" s="147" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116"/>
-      <c r="B2" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
+      <c r="B2" s="164" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="105"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105"/>
@@ -39540,42 +39537,42 @@
       <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="131" t="s">
+      <c r="D9" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="133" t="s">
@@ -39586,12 +39583,12 @@
         <v>10</v>
       </c>
       <c r="H9" s="134"/>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="132"/>
       <c r="C10" s="132"/>
       <c r="D10" s="132"/>
@@ -39607,7 +39604,7 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="136"/>
+      <c r="I10" s="139"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -39800,29 +39797,29 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="153"/>
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="133" t="s">
@@ -39833,12 +39830,12 @@
         <v>10</v>
       </c>
       <c r="H19" s="134"/>
-      <c r="I19" s="135" t="s">
+      <c r="I19" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="132"/>
       <c r="C20" s="132"/>
       <c r="D20" s="132"/>
@@ -39854,7 +39851,7 @@
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="136"/>
+      <c r="I20" s="139"/>
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -40015,7 +40012,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -40076,29 +40073,29 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="142"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="133" t="s">
@@ -40109,12 +40106,12 @@
         <v>10</v>
       </c>
       <c r="H30" s="134"/>
-      <c r="I30" s="135" t="s">
+      <c r="I30" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="132"/>
       <c r="C31" s="132"/>
       <c r="D31" s="132"/>
@@ -40130,7 +40127,7 @@
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="136"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
@@ -40355,39 +40352,39 @@
       <c r="A40" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="151"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="153"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="142"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="133" t="s">
@@ -40398,15 +40395,15 @@
         <v>10</v>
       </c>
       <c r="H42" s="134"/>
-      <c r="I42" s="135" t="s">
+      <c r="I42" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="144"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
+      <c r="A43" s="145"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
       <c r="E43" s="19" t="s">
         <v>12</v>
       </c>
@@ -40419,7 +40416,7 @@
       <c r="H43" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="146"/>
+      <c r="I43" s="154"/>
     </row>
     <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
@@ -40585,28 +40582,28 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
-      <c r="B50" s="152" t="s">
+      <c r="B50" s="131" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="131">
         <v>3</v>
       </c>
-      <c r="E50" s="152">
+      <c r="E50" s="131">
         <v>3</v>
       </c>
-      <c r="F50" s="152">
+      <c r="F50" s="131">
         <v>0</v>
       </c>
-      <c r="G50" s="152">
+      <c r="G50" s="131">
         <v>4</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="131">
         <v>0</v>
       </c>
-      <c r="I50" s="156" t="s">
+      <c r="I50" s="138" t="s">
         <v>17</v>
       </c>
     </row>
@@ -40621,7 +40618,7 @@
       <c r="F51" s="132"/>
       <c r="G51" s="132"/>
       <c r="H51" s="132"/>
-      <c r="I51" s="136"/>
+      <c r="I51" s="139"/>
     </row>
     <row r="52" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -40654,29 +40651,29 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="140" t="s">
+      <c r="A53" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="141"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="142"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="137"/>
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="131" t="s">
+      <c r="D54" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="133" t="s">
@@ -40687,15 +40684,15 @@
         <v>10</v>
       </c>
       <c r="H54" s="134"/>
-      <c r="I54" s="135" t="s">
+      <c r="I54" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="144"/>
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="19" t="s">
         <v>12</v>
       </c>
@@ -40708,7 +40705,7 @@
       <c r="H55" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="146"/>
+      <c r="I55" s="154"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
@@ -40874,28 +40871,28 @@
     </row>
     <row r="62" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
-      <c r="B62" s="152" t="s">
+      <c r="B62" s="131" t="s">
         <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="152">
+      <c r="D62" s="131">
         <v>3</v>
       </c>
-      <c r="E62" s="152">
+      <c r="E62" s="131">
         <v>3</v>
       </c>
-      <c r="F62" s="152">
+      <c r="F62" s="131">
         <v>0</v>
       </c>
-      <c r="G62" s="152">
+      <c r="G62" s="131">
         <v>4</v>
       </c>
-      <c r="H62" s="152">
+      <c r="H62" s="131">
         <v>0</v>
       </c>
-      <c r="I62" s="156" t="s">
+      <c r="I62" s="138" t="s">
         <v>74</v>
       </c>
     </row>
@@ -40910,7 +40907,7 @@
       <c r="F63" s="132"/>
       <c r="G63" s="132"/>
       <c r="H63" s="132"/>
-      <c r="I63" s="136"/>
+      <c r="I63" s="139"/>
     </row>
     <row r="64" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
@@ -40943,29 +40940,29 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="165" t="s">
+      <c r="A65" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="139"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="142"/>
     </row>
     <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="131" t="s">
+      <c r="C66" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="131" t="s">
+      <c r="D66" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="133" t="s">
@@ -40976,12 +40973,12 @@
         <v>10</v>
       </c>
       <c r="H66" s="134"/>
-      <c r="I66" s="135" t="s">
+      <c r="I66" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="144"/>
+      <c r="A67" s="145"/>
       <c r="B67" s="132"/>
       <c r="C67" s="132"/>
       <c r="D67" s="132"/>
@@ -40997,7 +40994,7 @@
       <c r="H67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="136"/>
+      <c r="I67" s="139"/>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -41032,7 +41029,7 @@
         <v>94</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -41059,7 +41056,7 @@
         <v>107</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="60">
         <v>3</v>
@@ -41077,16 +41074,16 @@
         <v>4</v>
       </c>
       <c r="I70" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="61" t="s">
         <v>222</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>223</v>
       </c>
       <c r="D71" s="60">
         <v>3</v>
@@ -41219,42 +41216,42 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="137" t="s">
+      <c r="A76" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="138"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="138"/>
-      <c r="F76" s="138"/>
-      <c r="G76" s="138"/>
-      <c r="H76" s="138"/>
-      <c r="I76" s="139"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="141"/>
+      <c r="F76" s="141"/>
+      <c r="G76" s="141"/>
+      <c r="H76" s="141"/>
+      <c r="I76" s="142"/>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="140" t="s">
+      <c r="A77" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141"/>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="142"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="137"/>
     </row>
     <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="143" t="s">
+      <c r="A78" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="131" t="s">
+      <c r="B78" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="131" t="s">
+      <c r="D78" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="133" t="s">
@@ -41265,12 +41262,12 @@
         <v>10</v>
       </c>
       <c r="H78" s="134"/>
-      <c r="I78" s="135" t="s">
+      <c r="I78" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="144"/>
+      <c r="A79" s="145"/>
       <c r="B79" s="132"/>
       <c r="C79" s="132"/>
       <c r="D79" s="132"/>
@@ -41286,7 +41283,7 @@
       <c r="H79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="136"/>
+      <c r="I79" s="139"/>
     </row>
     <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="67"/>
@@ -41294,7 +41291,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="31">
         <v>3</v>
@@ -41372,10 +41369,10 @@
     <row r="83" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D83" s="3">
         <v>3</v>
@@ -41393,7 +41390,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -41508,29 +41505,29 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="140" t="s">
+      <c r="A88" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="141"/>
-      <c r="D88" s="141"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="141"/>
-      <c r="H88" s="141"/>
-      <c r="I88" s="142"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="136"/>
+      <c r="I88" s="137"/>
     </row>
     <row r="89" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="143" t="s">
+      <c r="A89" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="131" t="s">
+      <c r="B89" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="131" t="s">
+      <c r="C89" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="131" t="s">
+      <c r="D89" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="133" t="s">
@@ -41541,12 +41538,12 @@
         <v>10</v>
       </c>
       <c r="H89" s="134"/>
-      <c r="I89" s="135" t="s">
+      <c r="I89" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="144"/>
+      <c r="A90" s="145"/>
       <c r="B90" s="132"/>
       <c r="C90" s="132"/>
       <c r="D90" s="132"/>
@@ -41562,15 +41559,15 @@
       <c r="H90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="136"/>
+      <c r="I90" s="139"/>
     </row>
     <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D91" s="3">
         <v>3</v>
@@ -41596,10 +41593,10 @@
         <v>44</v>
       </c>
       <c r="B92" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="D92" s="20">
         <v>3</v>
@@ -41623,10 +41620,10 @@
     <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D93" s="3">
         <v>3</v>
@@ -41650,10 +41647,10 @@
     <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="61" t="s">
         <v>234</v>
-      </c>
-      <c r="C94" s="61" t="s">
-        <v>235</v>
       </c>
       <c r="D94" s="60">
         <v>3</v>
@@ -41677,10 +41674,10 @@
     <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D95" s="3">
         <v>3</v>
@@ -41698,16 +41695,16 @@
         <v>0</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D96" s="3">
         <v>3</v>
@@ -41731,10 +41728,10 @@
     <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D97" s="3">
         <v>3</v>
@@ -41786,29 +41783,29 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="140" t="s">
+      <c r="A99" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="141"/>
-      <c r="C99" s="141"/>
-      <c r="D99" s="141"/>
-      <c r="E99" s="141"/>
-      <c r="F99" s="141"/>
-      <c r="G99" s="141"/>
-      <c r="H99" s="141"/>
-      <c r="I99" s="142"/>
+      <c r="B99" s="136"/>
+      <c r="C99" s="136"/>
+      <c r="D99" s="136"/>
+      <c r="E99" s="136"/>
+      <c r="F99" s="136"/>
+      <c r="G99" s="136"/>
+      <c r="H99" s="136"/>
+      <c r="I99" s="137"/>
     </row>
     <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="143" t="s">
+      <c r="A100" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="131" t="s">
+      <c r="B100" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="131" t="s">
+      <c r="C100" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="131" t="s">
+      <c r="D100" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="133" t="s">
@@ -41819,12 +41816,12 @@
         <v>10</v>
       </c>
       <c r="H100" s="134"/>
-      <c r="I100" s="135" t="s">
+      <c r="I100" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="144"/>
+      <c r="A101" s="145"/>
       <c r="B101" s="132"/>
       <c r="C101" s="132"/>
       <c r="D101" s="132"/>
@@ -41840,15 +41837,15 @@
       <c r="H101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="136"/>
+      <c r="I101" s="139"/>
     </row>
     <row r="102" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="71"/>
       <c r="B102" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="D102" s="3">
         <v>3</v>
@@ -41866,16 +41863,16 @@
         <v>4</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="D103" s="3">
         <v>3</v>
@@ -41893,16 +41890,16 @@
         <v>4</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="61" t="s">
         <v>242</v>
-      </c>
-      <c r="C104" s="61" t="s">
-        <v>243</v>
       </c>
       <c r="D104" s="60">
         <v>3</v>
@@ -41920,16 +41917,16 @@
         <v>0</v>
       </c>
       <c r="I104" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="72"/>
       <c r="B105" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="D105" s="31">
         <v>3</v>
@@ -41953,10 +41950,10 @@
     <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D106" s="3">
         <v>3</v>
@@ -41980,10 +41977,10 @@
     <row r="107" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="72"/>
       <c r="B107" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="D107" s="31">
         <v>3</v>
@@ -42007,10 +42004,10 @@
     <row r="108" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="53"/>
       <c r="B108" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>152</v>
       </c>
       <c r="D108" s="31">
         <v>3</v>
@@ -42062,42 +42059,42 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" s="138"/>
-      <c r="C110" s="138"/>
-      <c r="D110" s="138"/>
-      <c r="E110" s="138"/>
-      <c r="F110" s="138"/>
-      <c r="G110" s="138"/>
-      <c r="H110" s="138"/>
-      <c r="I110" s="139"/>
+      <c r="A110" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="141"/>
+      <c r="C110" s="141"/>
+      <c r="D110" s="141"/>
+      <c r="E110" s="141"/>
+      <c r="F110" s="141"/>
+      <c r="G110" s="141"/>
+      <c r="H110" s="141"/>
+      <c r="I110" s="142"/>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="140" t="s">
+      <c r="A111" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="C111" s="141"/>
-      <c r="D111" s="141"/>
-      <c r="E111" s="141"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="141"/>
-      <c r="H111" s="141"/>
-      <c r="I111" s="142"/>
+      <c r="B111" s="136"/>
+      <c r="C111" s="136"/>
+      <c r="D111" s="136"/>
+      <c r="E111" s="136"/>
+      <c r="F111" s="136"/>
+      <c r="G111" s="136"/>
+      <c r="H111" s="136"/>
+      <c r="I111" s="137"/>
     </row>
     <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="143" t="s">
+      <c r="A112" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="131" t="s">
+      <c r="B112" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="131" t="s">
+      <c r="C112" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="131" t="s">
+      <c r="D112" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="133" t="s">
@@ -42108,12 +42105,12 @@
         <v>10</v>
       </c>
       <c r="H112" s="134"/>
-      <c r="I112" s="135" t="s">
+      <c r="I112" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="144"/>
+      <c r="A113" s="145"/>
       <c r="B113" s="132"/>
       <c r="C113" s="132"/>
       <c r="D113" s="132"/>
@@ -42129,15 +42126,15 @@
       <c r="H113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="136"/>
+      <c r="I113" s="139"/>
     </row>
     <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
@@ -42161,10 +42158,10 @@
     <row r="115" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D115" s="3">
         <v>3</v>
@@ -42182,7 +42179,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -42227,17 +42224,17 @@
       <c r="I117" s="121"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B118" s="159"/>
-      <c r="C118" s="159"/>
-      <c r="D118" s="159"/>
-      <c r="E118" s="159"/>
-      <c r="F118" s="159"/>
-      <c r="G118" s="159"/>
-      <c r="H118" s="159"/>
-      <c r="I118" s="159"/>
+      <c r="A118" s="157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="156"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="122"/>
@@ -42273,10 +42270,10 @@
       <c r="I121" s="105"/>
     </row>
     <row r="122" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="159"/>
+      <c r="A122" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="156"/>
       <c r="C122" s="123"/>
       <c r="D122" s="117"/>
       <c r="E122" s="117"/>
@@ -42308,11 +42305,11 @@
       <c r="I124" s="117"/>
     </row>
     <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="159"/>
-      <c r="C125" s="159"/>
+      <c r="A125" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="156"/>
+      <c r="C125" s="156"/>
       <c r="D125" s="117"/>
       <c r="E125" s="117"/>
       <c r="F125" s="124"/>
@@ -42321,10 +42318,10 @@
       <c r="I125" s="117"/>
     </row>
     <row r="126" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="159"/>
+      <c r="A126" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="156"/>
       <c r="C126" s="124"/>
       <c r="D126" s="117"/>
       <c r="E126" s="117"/>
@@ -42345,10 +42342,10 @@
       <c r="I127" s="117"/>
     </row>
     <row r="128" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B128" s="159"/>
+      <c r="A128" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="156"/>
       <c r="C128" s="123"/>
       <c r="D128" s="123"/>
       <c r="E128" s="123"/>
@@ -42380,11 +42377,11 @@
       <c r="I130" s="117"/>
     </row>
     <row r="131" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="B131" s="159"/>
-      <c r="C131" s="159"/>
+      <c r="A131" s="155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="156"/>
+      <c r="C131" s="156"/>
       <c r="D131" s="123"/>
       <c r="E131" s="123"/>
       <c r="F131" s="123"/>
@@ -42393,10 +42390,10 @@
       <c r="I131" s="117"/>
     </row>
     <row r="132" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B132" s="159"/>
+      <c r="A132" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="156"/>
       <c r="C132" s="117"/>
       <c r="D132" s="123"/>
       <c r="E132" s="123"/>
@@ -42417,11 +42414,11 @@
       <c r="I133" s="117"/>
     </row>
     <row r="134" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B134" s="159"/>
-      <c r="C134" s="159"/>
+      <c r="A134" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="156"/>
+      <c r="C134" s="156"/>
       <c r="D134" s="123"/>
       <c r="E134" s="123"/>
       <c r="F134" s="123"/>
@@ -42452,11 +42449,11 @@
       <c r="I136" s="117"/>
     </row>
     <row r="137" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="159"/>
-      <c r="C137" s="159"/>
+      <c r="A137" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="156"/>
+      <c r="C137" s="156"/>
       <c r="D137" s="123"/>
       <c r="E137" s="123"/>
       <c r="F137" s="123"/>
@@ -42465,11 +42462,11 @@
       <c r="I137" s="117"/>
     </row>
     <row r="138" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
+      <c r="A138" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="156"/>
+      <c r="C138" s="156"/>
       <c r="D138" s="123"/>
       <c r="E138" s="123"/>
       <c r="F138" s="123"/>
@@ -44524,11 +44521,11 @@
       <c r="I324" s="105"/>
     </row>
     <row r="325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="B325" s="159"/>
-      <c r="C325" s="159"/>
+      <c r="A325" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B325" s="156"/>
+      <c r="C325" s="156"/>
       <c r="D325" s="105"/>
       <c r="E325" s="105"/>
       <c r="F325" s="105"/>
@@ -44537,11 +44534,11 @@
       <c r="I325" s="105"/>
     </row>
     <row r="326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B326" s="159"/>
-      <c r="C326" s="159"/>
+      <c r="A326" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B326" s="156"/>
+      <c r="C326" s="156"/>
       <c r="D326" s="105"/>
       <c r="E326" s="105"/>
       <c r="F326" s="105"/>
@@ -47225,6 +47222,95 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A137:C137"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="G78:H78"/>
     <mergeCell ref="G89:H89"/>
@@ -47249,95 +47335,6 @@
     <mergeCell ref="A88:I88"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="1.2598425196850394" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125984"/>
@@ -47374,42 +47371,42 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116"/>
-      <c r="B1" s="147" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116"/>
-      <c r="B2" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
+      <c r="B2" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="105"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105"/>
@@ -47458,42 +47455,42 @@
       <c r="I7" s="103"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="133" t="s">
@@ -47504,12 +47501,12 @@
         <v>10</v>
       </c>
       <c r="H10" s="134"/>
-      <c r="I10" s="135" t="s">
+      <c r="I10" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
       <c r="D11" s="132"/>
@@ -47525,7 +47522,7 @@
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="136"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -47718,29 +47715,29 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="153"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="133" t="s">
@@ -47751,12 +47748,12 @@
         <v>10</v>
       </c>
       <c r="H20" s="134"/>
-      <c r="I20" s="135" t="s">
+      <c r="I20" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="132"/>
       <c r="C21" s="132"/>
       <c r="D21" s="132"/>
@@ -47772,7 +47769,7 @@
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="136"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -47933,7 +47930,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -47994,29 +47991,29 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="142"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="137"/>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="133" t="s">
@@ -48027,12 +48024,12 @@
         <v>10</v>
       </c>
       <c r="H31" s="134"/>
-      <c r="I31" s="135" t="s">
+      <c r="I31" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="132"/>
       <c r="C32" s="132"/>
       <c r="D32" s="132"/>
@@ -48048,7 +48045,7 @@
       <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="136"/>
+      <c r="I32" s="139"/>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
@@ -48273,39 +48270,39 @@
       <c r="A41" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="151"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="153"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="142"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="137"/>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="143" t="s">
+      <c r="A43" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="133" t="s">
@@ -48316,15 +48313,15 @@
         <v>10</v>
       </c>
       <c r="H43" s="134"/>
-      <c r="I43" s="135" t="s">
+      <c r="I43" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="144"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
       <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
@@ -48337,7 +48334,7 @@
       <c r="H44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="146"/>
+      <c r="I44" s="154"/>
     </row>
     <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
@@ -48503,28 +48500,28 @@
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="131" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="131">
         <v>3</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="131">
         <v>3</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="131">
         <v>0</v>
       </c>
-      <c r="G51" s="152">
+      <c r="G51" s="131">
         <v>4</v>
       </c>
-      <c r="H51" s="152">
+      <c r="H51" s="131">
         <v>0</v>
       </c>
-      <c r="I51" s="156" t="s">
+      <c r="I51" s="138" t="s">
         <v>17</v>
       </c>
     </row>
@@ -48539,7 +48536,7 @@
       <c r="F52" s="132"/>
       <c r="G52" s="132"/>
       <c r="H52" s="132"/>
-      <c r="I52" s="136"/>
+      <c r="I52" s="139"/>
     </row>
     <row r="53" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -48572,29 +48569,29 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="142"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="137"/>
     </row>
     <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="131" t="s">
+      <c r="B55" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="131" t="s">
+      <c r="D55" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="133" t="s">
@@ -48605,15 +48602,15 @@
         <v>10</v>
       </c>
       <c r="H55" s="134"/>
-      <c r="I55" s="135" t="s">
+      <c r="I55" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="144"/>
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="A56" s="145"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="146"/>
       <c r="E56" s="19" t="s">
         <v>12</v>
       </c>
@@ -48626,7 +48623,7 @@
       <c r="H56" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="146"/>
+      <c r="I56" s="154"/>
     </row>
     <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
@@ -48792,28 +48789,28 @@
     </row>
     <row r="63" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
-      <c r="B63" s="152" t="s">
+      <c r="B63" s="131" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="152">
+      <c r="D63" s="131">
         <v>3</v>
       </c>
-      <c r="E63" s="152">
+      <c r="E63" s="131">
         <v>3</v>
       </c>
-      <c r="F63" s="152">
+      <c r="F63" s="131">
         <v>0</v>
       </c>
-      <c r="G63" s="152">
+      <c r="G63" s="131">
         <v>4</v>
       </c>
-      <c r="H63" s="152">
+      <c r="H63" s="131">
         <v>0</v>
       </c>
-      <c r="I63" s="156" t="s">
+      <c r="I63" s="138" t="s">
         <v>74</v>
       </c>
     </row>
@@ -48828,7 +48825,7 @@
       <c r="F64" s="132"/>
       <c r="G64" s="132"/>
       <c r="H64" s="132"/>
-      <c r="I64" s="136"/>
+      <c r="I64" s="139"/>
     </row>
     <row r="65" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
@@ -48861,29 +48858,29 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="165" t="s">
+      <c r="A66" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="139"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="142"/>
     </row>
     <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="143" t="s">
+      <c r="A67" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="131" t="s">
+      <c r="C67" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="131" t="s">
+      <c r="D67" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="133" t="s">
@@ -48894,12 +48891,12 @@
         <v>10</v>
       </c>
       <c r="H67" s="134"/>
-      <c r="I67" s="135" t="s">
+      <c r="I67" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="144"/>
+      <c r="A68" s="145"/>
       <c r="B68" s="132"/>
       <c r="C68" s="132"/>
       <c r="D68" s="132"/>
@@ -48915,7 +48912,7 @@
       <c r="H68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="136"/>
+      <c r="I68" s="139"/>
     </row>
     <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -48974,10 +48971,10 @@
     <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="48" t="s">
         <v>249</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>250</v>
       </c>
       <c r="D71" s="20">
         <v>3</v>
@@ -49001,10 +48998,10 @@
     <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="61" t="s">
         <v>222</v>
-      </c>
-      <c r="C72" s="61" t="s">
-        <v>223</v>
       </c>
       <c r="D72" s="60">
         <v>3</v>
@@ -49137,42 +49134,42 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="137" t="s">
+      <c r="A77" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="138"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="138"/>
-      <c r="F77" s="138"/>
-      <c r="G77" s="138"/>
-      <c r="H77" s="138"/>
-      <c r="I77" s="139"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="141"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="141"/>
+      <c r="H77" s="141"/>
+      <c r="I77" s="142"/>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="140" t="s">
+      <c r="A78" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="141"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="142"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="136"/>
+      <c r="H78" s="136"/>
+      <c r="I78" s="137"/>
     </row>
     <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="143" t="s">
+      <c r="A79" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="131" t="s">
+      <c r="B79" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="131" t="s">
+      <c r="D79" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="133" t="s">
@@ -49183,12 +49180,12 @@
         <v>10</v>
       </c>
       <c r="H79" s="134"/>
-      <c r="I79" s="135" t="s">
+      <c r="I79" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="144"/>
+      <c r="A80" s="145"/>
       <c r="B80" s="132"/>
       <c r="C80" s="132"/>
       <c r="D80" s="132"/>
@@ -49204,7 +49201,7 @@
       <c r="H80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="136"/>
+      <c r="I80" s="139"/>
     </row>
     <row r="81" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="67"/>
@@ -49212,7 +49209,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="31">
         <v>3</v>
@@ -49290,10 +49287,10 @@
     <row r="84" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="48" t="s">
         <v>251</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>252</v>
       </c>
       <c r="D84" s="20">
         <v>3</v>
@@ -49311,7 +49308,7 @@
         <v>4</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -49426,29 +49423,29 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="142"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="137"/>
     </row>
     <row r="90" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="143" t="s">
+      <c r="A90" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="131" t="s">
+      <c r="B90" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="131" t="s">
+      <c r="C90" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="131" t="s">
+      <c r="D90" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="133" t="s">
@@ -49459,12 +49456,12 @@
         <v>10</v>
       </c>
       <c r="H90" s="134"/>
-      <c r="I90" s="135" t="s">
+      <c r="I90" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="144"/>
+      <c r="A91" s="145"/>
       <c r="B91" s="132"/>
       <c r="C91" s="132"/>
       <c r="D91" s="132"/>
@@ -49480,15 +49477,15 @@
       <c r="H91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="136"/>
+      <c r="I91" s="139"/>
     </row>
     <row r="92" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="46" t="s">
         <v>253</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>254</v>
       </c>
       <c r="D92" s="45">
         <v>3</v>
@@ -49506,7 +49503,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -49514,10 +49511,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="48" t="s">
         <v>255</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>256</v>
       </c>
       <c r="D93" s="20">
         <v>3</v>
@@ -49535,16 +49532,16 @@
         <v>4</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
@@ -49568,10 +49565,10 @@
     <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="61" t="s">
         <v>234</v>
-      </c>
-      <c r="C95" s="61" t="s">
-        <v>235</v>
       </c>
       <c r="D95" s="60">
         <v>3</v>
@@ -49595,10 +49592,10 @@
     <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D96" s="3">
         <v>3</v>
@@ -49616,16 +49613,16 @@
         <v>0</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D97" s="3">
         <v>3</v>
@@ -49649,10 +49646,10 @@
     <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D98" s="3">
         <v>3</v>
@@ -49704,29 +49701,29 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="140" t="s">
+      <c r="A100" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B100" s="141"/>
-      <c r="C100" s="141"/>
-      <c r="D100" s="141"/>
-      <c r="E100" s="141"/>
-      <c r="F100" s="141"/>
-      <c r="G100" s="141"/>
-      <c r="H100" s="141"/>
-      <c r="I100" s="142"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="136"/>
+      <c r="G100" s="136"/>
+      <c r="H100" s="136"/>
+      <c r="I100" s="137"/>
     </row>
     <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="143" t="s">
+      <c r="A101" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="131" t="s">
+      <c r="B101" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="131" t="s">
+      <c r="C101" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="131" t="s">
+      <c r="D101" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="133" t="s">
@@ -49737,12 +49734,12 @@
         <v>10</v>
       </c>
       <c r="H101" s="134"/>
-      <c r="I101" s="135" t="s">
+      <c r="I101" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="144"/>
+      <c r="A102" s="145"/>
       <c r="B102" s="132"/>
       <c r="C102" s="132"/>
       <c r="D102" s="132"/>
@@ -49758,15 +49755,15 @@
       <c r="H102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="136"/>
+      <c r="I102" s="139"/>
     </row>
     <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="76"/>
       <c r="B103" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="46" t="s">
         <v>257</v>
-      </c>
-      <c r="C103" s="46" t="s">
-        <v>258</v>
       </c>
       <c r="D103" s="45">
         <v>3</v>
@@ -49784,16 +49781,16 @@
         <v>4</v>
       </c>
       <c r="I103" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" s="48" t="s">
         <v>259</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>260</v>
       </c>
       <c r="D104" s="20">
         <v>3</v>
@@ -49811,16 +49808,16 @@
         <v>4</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="61" t="s">
         <v>242</v>
-      </c>
-      <c r="C105" s="61" t="s">
-        <v>243</v>
       </c>
       <c r="D105" s="60">
         <v>3</v>
@@ -49838,16 +49835,16 @@
         <v>0</v>
       </c>
       <c r="I105" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="67"/>
       <c r="B106" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="D106" s="31">
         <v>3</v>
@@ -49871,10 +49868,10 @@
     <row r="107" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D107" s="3">
         <v>3</v>
@@ -49898,10 +49895,10 @@
     <row r="108" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="67"/>
       <c r="B108" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="D108" s="31">
         <v>3</v>
@@ -49925,10 +49922,10 @@
     <row r="109" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="63"/>
       <c r="B109" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" s="31">
         <v>3</v>
@@ -49980,42 +49977,42 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="138"/>
-      <c r="C111" s="138"/>
-      <c r="D111" s="138"/>
-      <c r="E111" s="138"/>
-      <c r="F111" s="138"/>
-      <c r="G111" s="138"/>
-      <c r="H111" s="138"/>
-      <c r="I111" s="139"/>
+      <c r="A111" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="141"/>
+      <c r="C111" s="141"/>
+      <c r="D111" s="141"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="141"/>
+      <c r="G111" s="141"/>
+      <c r="H111" s="141"/>
+      <c r="I111" s="142"/>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="140" t="s">
+      <c r="A112" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="141"/>
-      <c r="C112" s="141"/>
-      <c r="D112" s="141"/>
-      <c r="E112" s="141"/>
-      <c r="F112" s="141"/>
-      <c r="G112" s="141"/>
-      <c r="H112" s="141"/>
-      <c r="I112" s="142"/>
+      <c r="B112" s="136"/>
+      <c r="C112" s="136"/>
+      <c r="D112" s="136"/>
+      <c r="E112" s="136"/>
+      <c r="F112" s="136"/>
+      <c r="G112" s="136"/>
+      <c r="H112" s="136"/>
+      <c r="I112" s="137"/>
     </row>
     <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="143" t="s">
+      <c r="A113" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="131" t="s">
+      <c r="B113" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="131" t="s">
+      <c r="C113" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="131" t="s">
+      <c r="D113" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="133" t="s">
@@ -50026,12 +50023,12 @@
         <v>10</v>
       </c>
       <c r="H113" s="134"/>
-      <c r="I113" s="135" t="s">
+      <c r="I113" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="144"/>
+      <c r="A114" s="145"/>
       <c r="B114" s="132"/>
       <c r="C114" s="132"/>
       <c r="D114" s="132"/>
@@ -50047,15 +50044,15 @@
       <c r="H114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="136"/>
+      <c r="I114" s="139"/>
     </row>
     <row r="115" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D115" s="3">
         <v>3</v>
@@ -50079,10 +50076,10 @@
     <row r="116" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D116" s="3">
         <v>3</v>
@@ -50100,7 +50097,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -50145,17 +50142,17 @@
       <c r="I118" s="121"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="160" t="s">
-        <v>261</v>
-      </c>
-      <c r="B119" s="159"/>
-      <c r="C119" s="159"/>
-      <c r="D119" s="159"/>
-      <c r="E119" s="159"/>
-      <c r="F119" s="159"/>
-      <c r="G119" s="159"/>
-      <c r="H119" s="159"/>
-      <c r="I119" s="159"/>
+      <c r="A119" s="157" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" s="156"/>
+      <c r="C119" s="156"/>
+      <c r="D119" s="156"/>
+      <c r="E119" s="156"/>
+      <c r="F119" s="156"/>
+      <c r="G119" s="156"/>
+      <c r="H119" s="156"/>
+      <c r="I119" s="156"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="122"/>
@@ -50180,10 +50177,10 @@
       <c r="I121" s="105"/>
     </row>
     <row r="122" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="159"/>
+      <c r="A122" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="156"/>
       <c r="C122" s="123"/>
       <c r="D122" s="117"/>
       <c r="E122" s="117"/>
@@ -50215,11 +50212,11 @@
       <c r="I124" s="117"/>
     </row>
     <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B125" s="159"/>
-      <c r="C125" s="159"/>
+      <c r="A125" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="156"/>
+      <c r="C125" s="156"/>
       <c r="D125" s="117"/>
       <c r="E125" s="117"/>
       <c r="F125" s="124"/>
@@ -50228,10 +50225,10 @@
       <c r="I125" s="117"/>
     </row>
     <row r="126" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="159"/>
+      <c r="A126" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="156"/>
       <c r="C126" s="124"/>
       <c r="D126" s="117"/>
       <c r="E126" s="117"/>
@@ -50252,10 +50249,10 @@
       <c r="I127" s="117"/>
     </row>
     <row r="128" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B128" s="159"/>
+      <c r="A128" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="156"/>
       <c r="C128" s="123"/>
       <c r="D128" s="123"/>
       <c r="E128" s="123"/>
@@ -50287,11 +50284,11 @@
       <c r="I130" s="117"/>
     </row>
     <row r="131" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="B131" s="159"/>
-      <c r="C131" s="159"/>
+      <c r="A131" s="155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="156"/>
+      <c r="C131" s="156"/>
       <c r="D131" s="123"/>
       <c r="E131" s="123"/>
       <c r="F131" s="123"/>
@@ -50300,10 +50297,10 @@
       <c r="I131" s="117"/>
     </row>
     <row r="132" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B132" s="159"/>
+      <c r="A132" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="156"/>
       <c r="C132" s="117"/>
       <c r="D132" s="123"/>
       <c r="E132" s="123"/>
@@ -50324,11 +50321,11 @@
       <c r="I133" s="117"/>
     </row>
     <row r="134" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B134" s="159"/>
-      <c r="C134" s="159"/>
+      <c r="A134" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="156"/>
+      <c r="C134" s="156"/>
       <c r="D134" s="123"/>
       <c r="E134" s="123"/>
       <c r="F134" s="123"/>
@@ -50359,11 +50356,11 @@
       <c r="I136" s="117"/>
     </row>
     <row r="137" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137" s="159"/>
-      <c r="C137" s="159"/>
+      <c r="A137" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="156"/>
+      <c r="C137" s="156"/>
       <c r="D137" s="123"/>
       <c r="E137" s="123"/>
       <c r="F137" s="123"/>
@@ -50372,11 +50369,11 @@
       <c r="I137" s="117"/>
     </row>
     <row r="138" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
+      <c r="A138" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="156"/>
+      <c r="C138" s="156"/>
       <c r="D138" s="123"/>
       <c r="E138" s="123"/>
       <c r="F138" s="123"/>
@@ -52431,11 +52428,11 @@
       <c r="I324" s="105"/>
     </row>
     <row r="325" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="158" t="s">
-        <v>262</v>
-      </c>
-      <c r="B325" s="159"/>
-      <c r="C325" s="159"/>
+      <c r="A325" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="B325" s="156"/>
+      <c r="C325" s="156"/>
       <c r="D325" s="105"/>
       <c r="E325" s="105"/>
       <c r="F325" s="105"/>
@@ -52444,11 +52441,11 @@
       <c r="I325" s="105"/>
     </row>
     <row r="326" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B326" s="159"/>
-      <c r="C326" s="159"/>
+      <c r="A326" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B326" s="156"/>
+      <c r="C326" s="156"/>
       <c r="D326" s="105"/>
       <c r="E326" s="105"/>
       <c r="F326" s="105"/>
@@ -55131,6 +55128,95 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A137:C137"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="G90:H90"/>
@@ -55155,95 +55241,6 @@
     <mergeCell ref="A89:I89"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A78:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="1.2598425196850394" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125984"/>
@@ -55264,8 +55261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L16:M21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55280,30 +55277,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="A1" s="163" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
     </row>
     <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="105"/>
@@ -55318,7 +55315,7 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="103"/>
       <c r="C4" s="103"/>
@@ -55341,42 +55338,42 @@
       <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="142"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="133" t="s">
@@ -55387,12 +55384,12 @@
         <v>10</v>
       </c>
       <c r="H8" s="134"/>
-      <c r="I8" s="135" t="s">
+      <c r="I8" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="132"/>
       <c r="C9" s="132"/>
       <c r="D9" s="132"/>
@@ -55408,7 +55405,7 @@
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="136"/>
+      <c r="I9" s="139"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -55601,29 +55598,29 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="151"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="153"/>
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="133" t="s">
@@ -55634,12 +55631,12 @@
         <v>10</v>
       </c>
       <c r="H18" s="134"/>
-      <c r="I18" s="135" t="s">
+      <c r="I18" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="132"/>
       <c r="C19" s="132"/>
       <c r="D19" s="132"/>
@@ -55655,7 +55652,7 @@
       <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="136"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -55816,7 +55813,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -55877,29 +55874,29 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="142"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="137"/>
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="133" t="s">
@@ -55910,12 +55907,12 @@
         <v>10</v>
       </c>
       <c r="H29" s="134"/>
-      <c r="I29" s="135" t="s">
+      <c r="I29" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="132"/>
       <c r="C30" s="132"/>
       <c r="D30" s="132"/>
@@ -55931,7 +55928,7 @@
       <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="136"/>
+      <c r="I30" s="139"/>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
@@ -56153,42 +56150,42 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="139"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="142"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="142"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="137"/>
     </row>
     <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="131" t="s">
+      <c r="B41" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="131" t="s">
+      <c r="C41" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="131" t="s">
+      <c r="D41" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="133" t="s">
@@ -56199,15 +56196,15 @@
         <v>10</v>
       </c>
       <c r="H41" s="134"/>
-      <c r="I41" s="135" t="s">
+      <c r="I41" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="144"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
       <c r="E42" s="19" t="s">
         <v>12</v>
       </c>
@@ -56220,7 +56217,7 @@
       <c r="H42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="146"/>
+      <c r="I42" s="154"/>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
@@ -56386,28 +56383,28 @@
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="131" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="131">
         <v>3</v>
       </c>
-      <c r="E49" s="152">
+      <c r="E49" s="131">
         <v>3</v>
       </c>
-      <c r="F49" s="152">
+      <c r="F49" s="131">
         <v>0</v>
       </c>
-      <c r="G49" s="152">
+      <c r="G49" s="131">
         <v>4</v>
       </c>
-      <c r="H49" s="152">
+      <c r="H49" s="131">
         <v>0</v>
       </c>
-      <c r="I49" s="156" t="s">
+      <c r="I49" s="138" t="s">
         <v>17</v>
       </c>
     </row>
@@ -56422,7 +56419,7 @@
       <c r="F50" s="132"/>
       <c r="G50" s="132"/>
       <c r="H50" s="132"/>
-      <c r="I50" s="136"/>
+      <c r="I50" s="139"/>
     </row>
     <row r="51" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -56455,29 +56452,29 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="140" t="s">
+      <c r="A52" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="142"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="137"/>
     </row>
     <row r="53" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="143" t="s">
+      <c r="A53" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="131" t="s">
+      <c r="D53" s="143" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="133" t="s">
@@ -56488,12 +56485,12 @@
         <v>10</v>
       </c>
       <c r="H53" s="134"/>
-      <c r="I53" s="135" t="s">
+      <c r="I53" s="147" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="144"/>
+      <c r="A54" s="145"/>
       <c r="B54" s="132"/>
       <c r="C54" s="132"/>
       <c r="D54" s="132"/>
@@ -56509,7 +56506,7 @@
       <c r="H54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="136"/>
+      <c r="I54" s="139"/>
     </row>
     <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -56571,7 +56568,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D57" s="20">
         <v>3</v>
@@ -56622,10 +56619,10 @@
     <row r="59" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D59" s="20">
         <v>3</v>
@@ -56643,7 +56640,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -56675,28 +56672,28 @@
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="152" t="s">
+      <c r="B61" s="131" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="152">
+      <c r="D61" s="131">
         <v>3</v>
       </c>
-      <c r="E61" s="152">
+      <c r="E61" s="131">
         <v>3</v>
       </c>
-      <c r="F61" s="152">
+      <c r="F61" s="131">
         <v>0</v>
       </c>
-      <c r="G61" s="152">
+      <c r="G61" s="131">
         <v>4</v>
       </c>
-      <c r="H61" s="152">
+      <c r="H61" s="131">
         <v>0</v>
       </c>
-      <c r="I61" s="156" t="s">
+      <c r="I61" s="138" t="s">
         <v>89</v>
       </c>
     </row>
@@ -56711,7 +56708,7 @@
       <c r="F62" s="132"/>
       <c r="G62" s="132"/>
       <c r="H62" s="132"/>
-      <c r="I62" s="136"/>
+      <c r="I62" s="139"/>
     </row>
     <row r="63" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
@@ -56756,10 +56753,10 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="192" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="159"/>
-      <c r="C65" s="159"/>
+        <v>266</v>
+      </c>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
       <c r="D65" s="129">
         <v>98</v>
       </c>
@@ -56770,10 +56767,10 @@
       <c r="I65" s="130"/>
     </row>
     <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="159"/>
+      <c r="A66" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="156"/>
       <c r="C66" s="123"/>
       <c r="D66" s="117"/>
       <c r="E66" s="117"/>
@@ -56794,11 +56791,11 @@
       <c r="I67" s="117"/>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="159"/>
-      <c r="C68" s="159"/>
+      <c r="A68" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
       <c r="D68" s="117"/>
       <c r="E68" s="117"/>
       <c r="F68" s="124"/>
@@ -56807,10 +56804,10 @@
       <c r="I68" s="117"/>
     </row>
     <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="159"/>
+      <c r="A69" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="156"/>
       <c r="C69" s="124"/>
       <c r="D69" s="117"/>
       <c r="E69" s="117"/>
@@ -56831,10 +56828,10 @@
       <c r="I70" s="117"/>
     </row>
     <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B71" s="159"/>
+      <c r="A71" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="156"/>
       <c r="C71" s="123"/>
       <c r="D71" s="123"/>
       <c r="E71" s="123"/>
@@ -56855,11 +56852,11 @@
       <c r="I72" s="117"/>
     </row>
     <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
+      <c r="A73" s="155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="156"/>
+      <c r="C73" s="156"/>
       <c r="D73" s="123"/>
       <c r="E73" s="123"/>
       <c r="F73" s="123"/>
@@ -56868,10 +56865,10 @@
       <c r="I73" s="117"/>
     </row>
     <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="159"/>
+      <c r="A74" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="156"/>
       <c r="C74" s="117"/>
       <c r="D74" s="123"/>
       <c r="E74" s="123"/>
@@ -56892,11 +56889,11 @@
       <c r="I75" s="117"/>
     </row>
     <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="159"/>
-      <c r="C76" s="159"/>
+      <c r="A76" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="156"/>
+      <c r="C76" s="156"/>
       <c r="D76" s="123"/>
       <c r="E76" s="123"/>
       <c r="F76" s="123"/>
@@ -56927,11 +56924,11 @@
       <c r="I78" s="117"/>
     </row>
     <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" s="159"/>
-      <c r="C79" s="159"/>
+      <c r="A79" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="156"/>
+      <c r="C79" s="156"/>
       <c r="D79" s="123"/>
       <c r="E79" s="123"/>
       <c r="F79" s="123"/>
@@ -56940,11 +56937,11 @@
       <c r="I79" s="117"/>
     </row>
     <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="159"/>
-      <c r="C80" s="159"/>
+      <c r="A80" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="156"/>
+      <c r="C80" s="156"/>
       <c r="D80" s="123"/>
       <c r="E80" s="123"/>
       <c r="F80" s="123"/>
@@ -58988,11 +58985,11 @@
       <c r="I265" s="105"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="B266" s="159"/>
-      <c r="C266" s="159"/>
+      <c r="A266" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B266" s="156"/>
+      <c r="C266" s="156"/>
       <c r="D266" s="105"/>
       <c r="E266" s="105"/>
       <c r="F266" s="105"/>
@@ -59001,11 +58998,11 @@
       <c r="I266" s="105"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B267" s="159"/>
-      <c r="C267" s="159"/>
+      <c r="A267" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B267" s="156"/>
+      <c r="C267" s="156"/>
       <c r="D267" s="105"/>
       <c r="E267" s="105"/>
       <c r="F267" s="105"/>
@@ -61748,6 +61745,61 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
@@ -61763,61 +61815,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="1.4960629921259843" bottom="0.74803149606299213" header="3.937007874015748E-2" footer="0.31496062992125984"/>
